--- a/John.xlsx
+++ b/John.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d03dc4ea78fd367a/Documents/S. Y. 2021-2022/1st Sem/Senior Thesis/data labeling/Final data labeling/data-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73F5745A-2714-420D-843C-3A200332528B}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C28CCE92-F283-44A4-ADF1-74079C5A4030}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{77CB7C1E-B4AD-45B5-9992-3E1454331525}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Filename</t>
   </si>
@@ -223,6 +223,156 @@
   </si>
   <si>
     <t>DirectoryFactory.java</t>
+  </si>
+  <si>
+    <t>DirectoryImpl.java</t>
+  </si>
+  <si>
+    <t>DivisionMethod.java</t>
+  </si>
+  <si>
+    <t>double_hash (2).py</t>
+  </si>
+  <si>
+    <t>double_hash (3).py</t>
+  </si>
+  <si>
+    <t>double_hash (4).py</t>
+  </si>
+  <si>
+    <t>double_hash.py</t>
+  </si>
+  <si>
+    <t>double_hashing.py</t>
+  </si>
+  <si>
+    <t>DoubleHashing.java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList.java</t>
+  </si>
+  <si>
+    <t>Driver.java</t>
+  </si>
+  <si>
+    <t>dynamic_hashing.py</t>
+  </si>
+  <si>
+    <t>Entry.java</t>
+  </si>
+  <si>
+    <t>EntryIterator.java</t>
+  </si>
+  <si>
+    <t>EntrySet.java</t>
+  </si>
+  <si>
+    <t>FastMap.java</t>
+  </si>
+  <si>
+    <t>first-recurring-number.js</t>
+  </si>
+  <si>
+    <t>FixedSizedHashMap.java</t>
+  </si>
+  <si>
+    <t>hash_table (2).py</t>
+  </si>
+  <si>
+    <t>hash_table (3).py</t>
+  </si>
+  <si>
+    <t>hash_table (4).py</t>
+  </si>
+  <si>
+    <t>hash_table (5).py</t>
+  </si>
+  <si>
+    <t>hash_table_with_linked_list (2).py</t>
+  </si>
+  <si>
+    <t>hash_table_with_linked_list (3).py</t>
+  </si>
+  <si>
+    <t>hash_table_with_linked_list (4).py</t>
+  </si>
+  <si>
+    <t>hash_table_with_linked_list.py</t>
+  </si>
+  <si>
+    <t>hash_table.py</t>
+  </si>
+  <si>
+    <t>hash-table.js</t>
+  </si>
+  <si>
+    <t>Hash.js</t>
+  </si>
+  <si>
+    <t>HashArrayMappedTrie.java</t>
+  </si>
+  <si>
+    <t>HashCodeAndEquals.java</t>
+  </si>
+  <si>
+    <t>HashEntry.java</t>
+  </si>
+  <si>
+    <t>HashFunction (2).java</t>
+  </si>
+  <si>
+    <t>HashFunction.java</t>
+  </si>
+  <si>
+    <t>HashMap (2).java</t>
+  </si>
+  <si>
+    <t>HashMap (3).java</t>
+  </si>
+  <si>
+    <t>HashMap (4).java</t>
+  </si>
+  <si>
+    <t>HashMap (5).java</t>
+  </si>
+  <si>
+    <t>HashMap (6).java</t>
+  </si>
+  <si>
+    <t>HashMap (7).java</t>
+  </si>
+  <si>
+    <t>HashMap (8).java</t>
+  </si>
+  <si>
+    <t>HashMap (9).java</t>
+  </si>
+  <si>
+    <t>HashMap (10).java</t>
+  </si>
+  <si>
+    <t>HashMap (11).java</t>
+  </si>
+  <si>
+    <t>HashMap (12).java</t>
+  </si>
+  <si>
+    <t>HashMap (13).java</t>
+  </si>
+  <si>
+    <t>HashMap (14).java</t>
+  </si>
+  <si>
+    <t>HashMap.java</t>
+  </si>
+  <si>
+    <t>HashMap.js</t>
+  </si>
+  <si>
+    <t>hashmap.py</t>
+  </si>
+  <si>
+    <t>HashMapDriver.java</t>
   </si>
 </sst>
 </file>
@@ -595,11 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E621E51-50FD-4EF4-866F-BB44D85D3FB2}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,6 +2411,1606 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/John.xlsx
+++ b/John.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d03dc4ea78fd367a/Documents/S. Y. 2021-2022/1st Sem/Senior Thesis/data labeling/Final data labeling/data-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C28CCE92-F283-44A4-ADF1-74079C5A4030}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E371093B-E5D6-4A54-B7A5-1AAF51972A38}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{77CB7C1E-B4AD-45B5-9992-3E1454331525}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Filename</t>
   </si>
@@ -373,6 +373,360 @@
   </si>
   <si>
     <t>HashMapDriver.java</t>
+  </si>
+  <si>
+    <t>HashMapEntry.java</t>
+  </si>
+  <si>
+    <t>HashMapImplementation.java</t>
+  </si>
+  <si>
+    <t>HashMapInterface (2).java</t>
+  </si>
+  <si>
+    <t>HashMapInterface (3).java</t>
+  </si>
+  <si>
+    <t>HashMapInterface.java</t>
+  </si>
+  <si>
+    <t>HashMapSeparateChaining.java</t>
+  </si>
+  <si>
+    <t>HashMapX.java</t>
+  </si>
+  <si>
+    <t>HashSequence.java</t>
+  </si>
+  <si>
+    <t>HashStrategy.java</t>
+  </si>
+  <si>
+    <t>HashTable.java</t>
+  </si>
+  <si>
+    <t>HashTableChaining.java</t>
+  </si>
+  <si>
+    <t>HashTableOpenAddressing.java</t>
+  </si>
+  <si>
+    <t>HashTester (2).java</t>
+  </si>
+  <si>
+    <t>HashTester.java</t>
+  </si>
+  <si>
+    <t>implementing-hash-table.js</t>
+  </si>
+  <si>
+    <t>ImplicitKeyTreap.java</t>
+  </si>
+  <si>
+    <t>JavaSerializer.java</t>
+  </si>
+  <si>
+    <t>Key.java</t>
+  </si>
+  <si>
+    <t>KeyedObjectFactory.js</t>
+  </si>
+  <si>
+    <t>KeyIterator.java</t>
+  </si>
+  <si>
+    <t>KeyNotFoundException.java</t>
+  </si>
+  <si>
+    <t>KeySet.java</t>
+  </si>
+  <si>
+    <t>KeyValueNode.java</t>
+  </si>
+  <si>
+    <t>KeyValuePair.java</t>
+  </si>
+  <si>
+    <t>KeyValuePojo.java</t>
+  </si>
+  <si>
+    <t>KpcbHash.java</t>
+  </si>
+  <si>
+    <t>LazyStudent (2).java</t>
+  </si>
+  <si>
+    <t>LazyStudent.java</t>
+  </si>
+  <si>
+    <t>linearmap.py</t>
+  </si>
+  <si>
+    <t>LinearProbing.java</t>
+  </si>
+  <si>
+    <t>LinearProbingBucketImpl.java</t>
+  </si>
+  <si>
+    <t>LinkedList (2).java</t>
+  </si>
+  <si>
+    <t>LinkedList (3).java</t>
+  </si>
+  <si>
+    <t>LinkedList (4).java</t>
+  </si>
+  <si>
+    <t>LinkedList.java</t>
+  </si>
+  <si>
+    <t>LRUCache.java</t>
+  </si>
+  <si>
+    <t>LRUCache.js</t>
+  </si>
+  <si>
+    <t>Main (2).java</t>
+  </si>
+  <si>
+    <t>Main (3).java</t>
+  </si>
+  <si>
+    <t>Main (4).java</t>
+  </si>
+  <si>
+    <t>Main (5).java</t>
+  </si>
+  <si>
+    <t>Main (6).java</t>
+  </si>
+  <si>
+    <t>Main (7).java</t>
+  </si>
+  <si>
+    <t>Main (8).java</t>
+  </si>
+  <si>
+    <t>Main (9).java</t>
+  </si>
+  <si>
+    <t>Main (10).java</t>
+  </si>
+  <si>
+    <t>Main (11).java</t>
+  </si>
+  <si>
+    <t>Main.java</t>
+  </si>
+  <si>
+    <t>MainClass (2).java</t>
+  </si>
+  <si>
+    <t>MainClass.java</t>
+  </si>
+  <si>
+    <t>Map (2).java</t>
+  </si>
+  <si>
+    <t>Map.java</t>
+  </si>
+  <si>
+    <t>Map.js</t>
+  </si>
+  <si>
+    <t>MapEntry (2).java</t>
+  </si>
+  <si>
+    <t>MapEntry (3).java</t>
+  </si>
+  <si>
+    <t>MapEntry (4).java</t>
+  </si>
+  <si>
+    <t>MapEntry.java</t>
+  </si>
+  <si>
+    <t>MathGeneral.java</t>
+  </si>
+  <si>
+    <t>MetricsSupport.java</t>
+  </si>
+  <si>
+    <t>MultiplicationMethod.java</t>
+  </si>
+  <si>
+    <t>MultiStringColl.java</t>
+  </si>
+  <si>
+    <t>MultiStringCollClient.java</t>
+  </si>
+  <si>
+    <t>MyHashMap (2).java</t>
+  </si>
+  <si>
+    <t>MyHashMap (3).java</t>
+  </si>
+  <si>
+    <t>MyHashMap.java</t>
+  </si>
+  <si>
+    <t>MyHashMapImpl (2).java</t>
+  </si>
+  <si>
+    <t>MyHashMapImpl.java</t>
+  </si>
+  <si>
+    <t>Nashmap.java</t>
+  </si>
+  <si>
+    <t>NeedExpansionException.java</t>
+  </si>
+  <si>
+    <t>Node (2).java</t>
+  </si>
+  <si>
+    <t>Node (3).java</t>
+  </si>
+  <si>
+    <t>Node (4).java</t>
+  </si>
+  <si>
+    <t>Node (5).java</t>
+  </si>
+  <si>
+    <t>Node.java</t>
+  </si>
+  <si>
+    <t>ObjectCache.java</t>
+  </si>
+  <si>
+    <t>OHMap.java</t>
+  </si>
+  <si>
+    <t>PauselessHashMap.java</t>
+  </si>
+  <si>
+    <t>PerfectHashMap.java</t>
+  </si>
+  <si>
+    <t>PersistentHashMap.java</t>
+  </si>
+  <si>
+    <t>PersistentMapException.java</t>
+  </si>
+  <si>
+    <t>PSHOffsetTable.java</t>
+  </si>
+  <si>
+    <t>quadratic_probing (2).py</t>
+  </si>
+  <si>
+    <t>quadratic_probing (3).py</t>
+  </si>
+  <si>
+    <t>quadratic_probing (4).py</t>
+  </si>
+  <si>
+    <t>quadratic_probing.py</t>
+  </si>
+  <si>
+    <t>QuadraticProbing.java</t>
+  </si>
+  <si>
+    <t>RedBlackTree.java</t>
+  </si>
+  <si>
+    <t>RedBlackTreeInteger.java</t>
+  </si>
+  <si>
+    <t>SimpleHashtable (2).java</t>
+  </si>
+  <si>
+    <t>SimpleHashtable.java</t>
+  </si>
+  <si>
+    <t>SortOnValuesInMap.java</t>
+  </si>
+  <si>
+    <t>StoredEmployee.java</t>
+  </si>
+  <si>
+    <t>StringColl.java</t>
+  </si>
+  <si>
+    <t>StringCollClient.java</t>
+  </si>
+  <si>
+    <t>StringSearch.java</t>
+  </si>
+  <si>
+    <t>Student (2).java</t>
+  </si>
+  <si>
+    <t>Student.java</t>
+  </si>
+  <si>
+    <t>Test.java</t>
+  </si>
+  <si>
+    <t>TinyList.java</t>
+  </si>
+  <si>
+    <t>TinyListBuilder.java</t>
+  </si>
+  <si>
+    <t>TinyMap.java</t>
+  </si>
+  <si>
+    <t>TinyMapBuilder.java</t>
+  </si>
+  <si>
+    <t>TinySet.java</t>
+  </si>
+  <si>
+    <t>TinySetBuilder.java</t>
+  </si>
+  <si>
+    <t>TransactionObj.java</t>
+  </si>
+  <si>
+    <t>TreeNode.java</t>
+  </si>
+  <si>
+    <t>UnsortedTableMap.java</t>
+  </si>
+  <si>
+    <t>ValueIterator.java</t>
+  </si>
+  <si>
+    <t>ValueSet.java</t>
+  </si>
+  <si>
+    <t>Vec3I.java</t>
+  </si>
+  <si>
+    <t>View.java</t>
+  </si>
+  <si>
+    <t>WeakConcurrentHashMap.java</t>
+  </si>
+  <si>
+    <t>WeakConcurrentHashMapListener.java</t>
+  </si>
+  <si>
+    <t>WeakConcurrentMap.java</t>
+  </si>
+  <si>
+    <t>WeakConcurrentSet.java</t>
+  </si>
+  <si>
+    <t>WeakHashMapImplementation.java</t>
+  </si>
+  <si>
+    <t>WordCount (2).java</t>
+  </si>
+  <si>
+    <t>WordCount.java</t>
   </si>
 </sst>
 </file>
@@ -745,11 +1099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E621E51-50FD-4EF4-866F-BB44D85D3FB2}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J220" sqref="J220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4011,6 +4365,3782 @@
         <v>1</v>
       </c>
     </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>196</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>198</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>201</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>202</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>203</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>205</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>206</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>207</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>210</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>211</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>213</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>214</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>215</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>216</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>217</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>219</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>220</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>221</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>222</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>223</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>224</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>225</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>226</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>227</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>228</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>229</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>230</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/John.xlsx
+++ b/John.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d03dc4ea78fd367a/Documents/S. Y. 2021-2022/1st Sem/Senior Thesis/data labeling/Final data labeling/data-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E371093B-E5D6-4A54-B7A5-1AAF51972A38}"/>
+  <xr:revisionPtr revIDLastSave="736" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2012E89B-0EA3-4E8F-AA8F-9008CC1318C9}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{77CB7C1E-B4AD-45B5-9992-3E1454331525}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="308">
   <si>
     <t>Filename</t>
   </si>
@@ -213,9 +213,6 @@
     <t>DetachedThreadLocal.java</t>
   </si>
   <si>
-    <t>Dict.cs</t>
-  </si>
-  <si>
     <t>dictionary.py</t>
   </si>
   <si>
@@ -727,6 +724,240 @@
   </si>
   <si>
     <t>WordCount.java</t>
+  </si>
+  <si>
+    <t>ArrayList.java</t>
+  </si>
+  <si>
+    <t>base_linked_list.py</t>
+  </si>
+  <si>
+    <t>CircleLinkedList (2).java</t>
+  </si>
+  <si>
+    <t>CircleLinkedList (3).java</t>
+  </si>
+  <si>
+    <t>CircleLinkedList (4).java</t>
+  </si>
+  <si>
+    <t>CircleLinkedList (5).java</t>
+  </si>
+  <si>
+    <t>CircleLinkedList.java</t>
+  </si>
+  <si>
+    <t>circular_linked_list.py</t>
+  </si>
+  <si>
+    <t>CircularDoublyLinkedList.java</t>
+  </si>
+  <si>
+    <t>CircularLinkedList (2).java</t>
+  </si>
+  <si>
+    <t>CircularLinkedList (3).java</t>
+  </si>
+  <si>
+    <t>CircularLinkedList (4).java</t>
+  </si>
+  <si>
+    <t>CircularLinkedList.java</t>
+  </si>
+  <si>
+    <t>CircularSinglyLinkedList.java</t>
+  </si>
+  <si>
+    <t>CoinFlipper.java</t>
+  </si>
+  <si>
+    <t>CursorLinkedList.java</t>
+  </si>
+  <si>
+    <t>DLinkedList.java</t>
+  </si>
+  <si>
+    <t>DLinkedListTest.java</t>
+  </si>
+  <si>
+    <t>doubly_linked_list (2).py</t>
+  </si>
+  <si>
+    <t>doubly_linked_list (3).py</t>
+  </si>
+  <si>
+    <t>doubly_linked_list (4).py</t>
+  </si>
+  <si>
+    <t>doubly_linked_list.py</t>
+  </si>
+  <si>
+    <t>doubly_linked.py</t>
+  </si>
+  <si>
+    <t>doubly-linked-list.js</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (2).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (2).js</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (3).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (4).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (5).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (6).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (7).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (8).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (9).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (10).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (11).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList (12).java</t>
+  </si>
+  <si>
+    <t>DoublyLinkedList.js</t>
+  </si>
+  <si>
+    <t>DoublyLinkedListImplementation.java</t>
+  </si>
+  <si>
+    <t>Employee (2).java</t>
+  </si>
+  <si>
+    <t>Employee (3).java</t>
+  </si>
+  <si>
+    <t>Employee (4).java</t>
+  </si>
+  <si>
+    <t>Employee.java</t>
+  </si>
+  <si>
+    <t>EmployeeDoublyLinkedList (2).java</t>
+  </si>
+  <si>
+    <t>EmployeeDoublyLinkedList (3).java</t>
+  </si>
+  <si>
+    <t>EmployeeDoublyLinkedList.java</t>
+  </si>
+  <si>
+    <t>EmployeeLinkedList (2).java</t>
+  </si>
+  <si>
+    <t>EmployeeLinkedList.java</t>
+  </si>
+  <si>
+    <t>EmployeeNode (2).java</t>
+  </si>
+  <si>
+    <t>EmployeeNode (3).java</t>
+  </si>
+  <si>
+    <t>EmployeeNode (4).java</t>
+  </si>
+  <si>
+    <t>EmployeeNode.java</t>
+  </si>
+  <si>
+    <t>EmptyListException.java</t>
+  </si>
+  <si>
+    <t>Intcoll4.java</t>
+  </si>
+  <si>
+    <t>Intcoll5.java</t>
+  </si>
+  <si>
+    <t>IntegerLinkedList.java</t>
+  </si>
+  <si>
+    <t>IntegerNode.java</t>
+  </si>
+  <si>
+    <t>is_Palindrome (2).py</t>
+  </si>
+  <si>
+    <t>is_Palindrome (3).py</t>
+  </si>
+  <si>
+    <t>is_Palindrome.py</t>
+  </si>
+  <si>
+    <t>linked_list (2).py</t>
+  </si>
+  <si>
+    <t>linked_list (3).py</t>
+  </si>
+  <si>
+    <t>linked_list (4).py</t>
+  </si>
+  <si>
+    <t>linked_list (5).py</t>
+  </si>
+  <si>
+    <t>linked_list_reverse.py</t>
+  </si>
+  <si>
+    <t>linked_list.py</t>
+  </si>
+  <si>
+    <t>linked-list.js</t>
+  </si>
+  <si>
+    <t>LinkedList (2).js</t>
+  </si>
+  <si>
+    <t>linkedList (3).js</t>
+  </si>
+  <si>
+    <t>LinkedList (5).java</t>
+  </si>
+  <si>
+    <t>LinkedList (6).java</t>
+  </si>
+  <si>
+    <t>linkedlist (7).java</t>
+  </si>
+  <si>
+    <t>linkedList.js</t>
+  </si>
+  <si>
+    <t>linkedlist.py</t>
+  </si>
+  <si>
+    <t>LinkedListImplementation.java</t>
+  </si>
+  <si>
+    <t>LinkedListInterface (2).java</t>
+  </si>
+  <si>
+    <t>LinkedListInterface.java</t>
+  </si>
+  <si>
+    <t>LinkedListNode.java</t>
+  </si>
+  <si>
+    <t>linklistbag.py</t>
   </si>
 </sst>
 </file>
@@ -1099,11 +1330,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E621E51-50FD-4EF4-866F-BB44D85D3FB2}">
-  <dimension ref="A1:O219"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J220" sqref="J220"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I301" sqref="I301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2826,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2986,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3018,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3114,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3146,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3242,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3274,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3626,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3658,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3754,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3850,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3882,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3914,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4042,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4074,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4202,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4266,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4426,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4522,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4586,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4682,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4839,10 +5070,10 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4871,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -4970,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -5002,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -5034,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -5098,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5162,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5194,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5258,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5290,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5322,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5351,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5479,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -5514,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5578,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5610,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5642,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5706,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5834,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5866,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5962,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -6026,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -6162,7 +6393,7 @@
         <v>169</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6186,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6194,7 +6425,7 @@
         <v>170</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6279,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -6311,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -6346,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6378,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6442,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -6538,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -6762,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6890,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6898,7 +7129,7 @@
         <v>192</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -6922,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6930,7 +7161,7 @@
         <v>193</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -6954,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -7114,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -7210,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -7242,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -7274,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -7303,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -7335,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -7562,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -7722,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -7754,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -7850,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7914,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -7946,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -7978,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -8010,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -8042,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -8074,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -8106,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -8138,7 +8369,2631 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>231</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>232</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>234</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>235</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>236</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>237</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>238</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>239</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>240</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>241</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>242</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>243</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>244</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>245</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>246</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>247</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>248</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>249</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>250</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>251</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>252</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>253</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>254</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>255</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>256</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>257</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>258</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>259</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>260</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>261</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>262</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>263</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>264</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>265</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>70</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>266</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>267</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>268</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>269</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>270</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>271</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>272</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>273</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>274</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>275</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>276</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>277</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>278</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>279</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>280</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>281</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>282</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>283</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>284</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>285</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>286</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>287</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>288</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>289</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>290</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>291</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>292</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>293</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>294</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>295</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>143</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>296</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>144</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>297</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>145</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>298</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>299</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>146</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>301</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>302</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>303</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>304</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>305</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>306</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>307</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/John.xlsx
+++ b/John.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d03dc4ea78fd367a/Documents/S. Y. 2021-2022/1st Sem/Senior Thesis/data labeling/Final data labeling/data-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="736" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2012E89B-0EA3-4E8F-AA8F-9008CC1318C9}"/>
+  <xr:revisionPtr revIDLastSave="889" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4502175-08D0-45E4-8088-054714380DEA}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{77CB7C1E-B4AD-45B5-9992-3E1454331525}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="363">
   <si>
     <t>Filename</t>
   </si>
@@ -958,6 +958,171 @@
   </si>
   <si>
     <t>linklistbag.py</t>
+  </si>
+  <si>
+    <t>List (2).java</t>
+  </si>
+  <si>
+    <t>List.java</t>
+  </si>
+  <si>
+    <t>lliststack.py</t>
+  </si>
+  <si>
+    <t>Merge_K_SortedLinkedlist.java</t>
+  </si>
+  <si>
+    <t>middle_element.java</t>
+  </si>
+  <si>
+    <t>NewJFrame.java</t>
+  </si>
+  <si>
+    <t>Node (2).js</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>node.py</t>
+  </si>
+  <si>
+    <t>open_addressing.py</t>
+  </si>
+  <si>
+    <t>queue (2).py</t>
+  </si>
+  <si>
+    <t>queue-using-linked-list.js</t>
+  </si>
+  <si>
+    <t>queue-using-stack.js</t>
+  </si>
+  <si>
+    <t>Queue.java</t>
+  </si>
+  <si>
+    <t>queue.js</t>
+  </si>
+  <si>
+    <t>queue.py</t>
+  </si>
+  <si>
+    <t>Recursion.java</t>
+  </si>
+  <si>
+    <t>reverse_linkedlist.java</t>
+  </si>
+  <si>
+    <t>reversed_linked_list.py</t>
+  </si>
+  <si>
+    <t>simplified-stacks-using-arrays.js</t>
+  </si>
+  <si>
+    <t>singly_linked_list (2).py</t>
+  </si>
+  <si>
+    <t>singly_linked_list (3).py</t>
+  </si>
+  <si>
+    <t>singly_linked_list (4).py</t>
+  </si>
+  <si>
+    <t>singly_linked_list.py</t>
+  </si>
+  <si>
+    <t>singly_linked.py</t>
+  </si>
+  <si>
+    <t>singly-linked-list.js</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList (2).java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList (3).java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList (4).java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList (5).java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList (6).java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList (7).java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList (8).java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList (9).java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList (10).java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList.java</t>
+  </si>
+  <si>
+    <t>SinglyLinkedList.js</t>
+  </si>
+  <si>
+    <t>SkipList (2).java</t>
+  </si>
+  <si>
+    <t>SkipList.java</t>
+  </si>
+  <si>
+    <t>SkipListInterface.java</t>
+  </si>
+  <si>
+    <t>SkipListMap.java</t>
+  </si>
+  <si>
+    <t>SkipListNode.java</t>
+  </si>
+  <si>
+    <t>SLLNode.java</t>
+  </si>
+  <si>
+    <t>sorted_linklistbag.py</t>
+  </si>
+  <si>
+    <t>stack-using-array.js</t>
+  </si>
+  <si>
+    <t>stack-using-linked-list.js</t>
+  </si>
+  <si>
+    <t>Stack.java</t>
+  </si>
+  <si>
+    <t>stack.py</t>
+  </si>
+  <si>
+    <t>swapNodes (2).py</t>
+  </si>
+  <si>
+    <t>swapNodes (3).py</t>
+  </si>
+  <si>
+    <t>swapNodes (4).py</t>
+  </si>
+  <si>
+    <t>swapNodes.py</t>
+  </si>
+  <si>
+    <t>test_linked_list.py</t>
+  </si>
+  <si>
+    <t>tree.js</t>
+  </si>
+  <si>
+    <t>Vectors.java</t>
   </si>
 </sst>
 </file>
@@ -1330,11 +1495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E621E51-50FD-4EF4-866F-BB44D85D3FB2}">
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:O364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I301" sqref="I301"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I364" sqref="I364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10984,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="G301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -10993,6 +11158,2022 @@
         <v>1</v>
       </c>
       <c r="J301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>308</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>309</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>310</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>149</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>150</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>151</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>152</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>153</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>159</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>181</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>185</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
         <v>0</v>
       </c>
     </row>

--- a/John.xlsx
+++ b/John.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d03dc4ea78fd367a/Documents/S. Y. 2021-2022/1st Sem/Senior Thesis/data labeling/Final data labeling/data-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="889" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4502175-08D0-45E4-8088-054714380DEA}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{924FE123-40A7-42A9-B64C-F1F6C9800087}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{77CB7C1E-B4AD-45B5-9992-3E1454331525}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="400">
   <si>
     <t>Filename</t>
   </si>
@@ -1123,6 +1123,117 @@
   </si>
   <si>
     <t>Vectors.java</t>
+  </si>
+  <si>
+    <t>AVL.py</t>
+  </si>
+  <si>
+    <t>AVLTree.java</t>
+  </si>
+  <si>
+    <t>BestFirstSearch.java</t>
+  </si>
+  <si>
+    <t>bin_search.py</t>
+  </si>
+  <si>
+    <t>Binary Search.java</t>
+  </si>
+  <si>
+    <t>Binary_Search (2).java</t>
+  </si>
+  <si>
+    <t>binary_search (2).py</t>
+  </si>
+  <si>
+    <t>binary_search (3).py</t>
+  </si>
+  <si>
+    <t>binary_search (4).py</t>
+  </si>
+  <si>
+    <t>binary_search (5).py</t>
+  </si>
+  <si>
+    <t>binary_search (6).py</t>
+  </si>
+  <si>
+    <t>binary_search (7).py</t>
+  </si>
+  <si>
+    <t>binary_search (8).py</t>
+  </si>
+  <si>
+    <t>binary_search (9).py</t>
+  </si>
+  <si>
+    <t>binary_search_tree.py</t>
+  </si>
+  <si>
+    <t>Binary_search.java</t>
+  </si>
+  <si>
+    <t>binary_search.py</t>
+  </si>
+  <si>
+    <t>binary-search-tree.js</t>
+  </si>
+  <si>
+    <t>binary.py</t>
+  </si>
+  <si>
+    <t>BinarySearch (2).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (2).js</t>
+  </si>
+  <si>
+    <t>BinarySearch (2).py</t>
+  </si>
+  <si>
+    <t>BinarySearch (3).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (3).js</t>
+  </si>
+  <si>
+    <t>binarySearch (3).py</t>
+  </si>
+  <si>
+    <t>BinarySearch (4).java</t>
+  </si>
+  <si>
+    <t>binarySearch (4).js</t>
+  </si>
+  <si>
+    <t>BinarySearch (5).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (5).js</t>
+  </si>
+  <si>
+    <t>BinarySearch (6).java</t>
+  </si>
+  <si>
+    <t>binarySearch (6).js</t>
+  </si>
+  <si>
+    <t>BinarySearch (7).java</t>
+  </si>
+  <si>
+    <t>binarySearch (7).js</t>
+  </si>
+  <si>
+    <t>BinarySearch (8).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (9).java</t>
+  </si>
+  <si>
+    <t>binarySearch (10).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (11).java</t>
   </si>
 </sst>
 </file>
@@ -1495,11 +1606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E621E51-50FD-4EF4-866F-BB44D85D3FB2}">
-  <dimension ref="A1:O364"/>
+  <dimension ref="A1:O401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I364" sqref="I364"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13177,6 +13288,1190 @@
         <v>0</v>
       </c>
     </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>1</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>1</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>1</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>1</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>1</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>1</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>1</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>1</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>1</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>1</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="H394">
+        <v>1</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395">
+        <v>1</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>1</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="H397">
+        <v>1</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+      <c r="H398">
+        <v>1</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>1</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>1</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>1</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>1</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/John.xlsx
+++ b/John.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d03dc4ea78fd367a/Documents/S. Y. 2021-2022/1st Sem/Senior Thesis/data labeling/Final data labeling/data-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="972" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{924FE123-40A7-42A9-B64C-F1F6C9800087}"/>
+  <xr:revisionPtr revIDLastSave="1433" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E35E0A-15EF-4BEF-971C-0E68EC58E2B0}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{77CB7C1E-B4AD-45B5-9992-3E1454331525}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="595">
   <si>
     <t>Filename</t>
   </si>
@@ -1234,6 +1234,591 @@
   </si>
   <si>
     <t>BinarySearch (11).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (12).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (13).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (14).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (15).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (16).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (17).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (18).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (19).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (20).java</t>
+  </si>
+  <si>
+    <t>BinarySearch (21).java</t>
+  </si>
+  <si>
+    <t>binarysearch_iterative.py</t>
+  </si>
+  <si>
+    <t>binarysearch_recursive.py</t>
+  </si>
+  <si>
+    <t>binarysearch_recursive2.py</t>
+  </si>
+  <si>
+    <t>BinarySearch.java</t>
+  </si>
+  <si>
+    <t>binarySearch.js</t>
+  </si>
+  <si>
+    <t>binarysearch.py</t>
+  </si>
+  <si>
+    <t>BinarySearch(iterative).py</t>
+  </si>
+  <si>
+    <t>BinarySearch(recursive).py</t>
+  </si>
+  <si>
+    <t>BinarySearchIterative.java</t>
+  </si>
+  <si>
+    <t>BinarySearchRecursion.java</t>
+  </si>
+  <si>
+    <t>BinarySearchRecursive (2).java</t>
+  </si>
+  <si>
+    <t>BinarySearchRecursive (3).java</t>
+  </si>
+  <si>
+    <t>BinarySearchRecursive.java</t>
+  </si>
+  <si>
+    <t>BinarySearchRecursively.java</t>
+  </si>
+  <si>
+    <t>BinarySearchST.java</t>
+  </si>
+  <si>
+    <t>BinarySearchTree (2).java</t>
+  </si>
+  <si>
+    <t>BinarySearchTree (3).java</t>
+  </si>
+  <si>
+    <t>BinarySearchTree.java</t>
+  </si>
+  <si>
+    <t>BinarySearchTree.py</t>
+  </si>
+  <si>
+    <t>binarySerach (2).java</t>
+  </si>
+  <si>
+    <t>binarySerach (3).java</t>
+  </si>
+  <si>
+    <t>binarySerach.java</t>
+  </si>
+  <si>
+    <t>binsearch.py</t>
+  </si>
+  <si>
+    <t>Bisection_Search.js</t>
+  </si>
+  <si>
+    <t>bsearch.py</t>
+  </si>
+  <si>
+    <t>BST.java</t>
+  </si>
+  <si>
+    <t>BST.py</t>
+  </si>
+  <si>
+    <t>BSTree.java</t>
+  </si>
+  <si>
+    <t>Dijkstra.java</t>
+  </si>
+  <si>
+    <t>DuplicateValueException.java</t>
+  </si>
+  <si>
+    <t>exponential_search.py</t>
+  </si>
+  <si>
+    <t>FenwickTree.java</t>
+  </si>
+  <si>
+    <t>fibonacci_search.py</t>
+  </si>
+  <si>
+    <t>FirstOccurrence.java</t>
+  </si>
+  <si>
+    <t>index.js</t>
+  </si>
+  <si>
+    <t>Intcoll6.java</t>
+  </si>
+  <si>
+    <t>interpolation_search (2).py</t>
+  </si>
+  <si>
+    <t>interpolation_search (3).py</t>
+  </si>
+  <si>
+    <t>interpolation_search (4).py</t>
+  </si>
+  <si>
+    <t>interpolation_search.py</t>
+  </si>
+  <si>
+    <t>InterpolationSearch (2).java</t>
+  </si>
+  <si>
+    <t>InterpolationSearch (3).java</t>
+  </si>
+  <si>
+    <t>InterpolationSearch (4).java</t>
+  </si>
+  <si>
+    <t>InterpolationSearch.java</t>
+  </si>
+  <si>
+    <t>iterative_binary_search (2).java</t>
+  </si>
+  <si>
+    <t>iterative_binary_search.java</t>
+  </si>
+  <si>
+    <t>IterativeBinarySearch (2).java</t>
+  </si>
+  <si>
+    <t>IterativeBinarySearch (3).java</t>
+  </si>
+  <si>
+    <t>IterativeBinarySearch (4).java</t>
+  </si>
+  <si>
+    <t>IterativeBinarySearch.java</t>
+  </si>
+  <si>
+    <t>IterativeTernarySearch.java</t>
+  </si>
+  <si>
+    <t>jump_search (2).py</t>
+  </si>
+  <si>
+    <t>jump_search.py</t>
+  </si>
+  <si>
+    <t>LastOccurrence.java</t>
+  </si>
+  <si>
+    <t>LowerBound.java</t>
+  </si>
+  <si>
+    <t>Mirror_of_Binary_Search_Tree.java</t>
+  </si>
+  <si>
+    <t>MST.java</t>
+  </si>
+  <si>
+    <t>NetworkFlow.java</t>
+  </si>
+  <si>
+    <t>node.js</t>
+  </si>
+  <si>
+    <t>NumberOfOccurrences.java</t>
+  </si>
+  <si>
+    <t>recursive-binary-search.js</t>
+  </si>
+  <si>
+    <t>recursiveBinarySearch (2).java</t>
+  </si>
+  <si>
+    <t>RecursiveBinarySearch.java</t>
+  </si>
+  <si>
+    <t>Search.java</t>
+  </si>
+  <si>
+    <t>SearchInsPos_35.java</t>
+  </si>
+  <si>
+    <t>SearchRotated_33.java</t>
+  </si>
+  <si>
+    <t>SegmentTree.java</t>
+  </si>
+  <si>
+    <t>SparseSearch.java</t>
+  </si>
+  <si>
+    <t>SuffixArray.java</t>
+  </si>
+  <si>
+    <t>tabu_search.py</t>
+  </si>
+  <si>
+    <t>ternary_search.py</t>
+  </si>
+  <si>
+    <t>TernarySearch.java</t>
+  </si>
+  <si>
+    <t>UnionFindDS.java</t>
+  </si>
+  <si>
+    <t>UpperBound.java</t>
+  </si>
+  <si>
+    <t>Array.java</t>
+  </si>
+  <si>
+    <t>arraySearch.js</t>
+  </si>
+  <si>
+    <t>FirstFitRoom.java</t>
+  </si>
+  <si>
+    <t>Java_Linear_Search_11.java</t>
+  </si>
+  <si>
+    <t>java-linear-search-2.java</t>
+  </si>
+  <si>
+    <t>java-linear-search-3.java</t>
+  </si>
+  <si>
+    <t>Java-Linear-Search-4.java</t>
+  </si>
+  <si>
+    <t>java-linear-search-5.java</t>
+  </si>
+  <si>
+    <t>java-linear-search-7.java</t>
+  </si>
+  <si>
+    <t>java-linear-search-8.java</t>
+  </si>
+  <si>
+    <t>java-linear-search-9.java</t>
+  </si>
+  <si>
+    <t>java-linear-search-10.java</t>
+  </si>
+  <si>
+    <t>java-linear-search-12.java</t>
+  </si>
+  <si>
+    <t>java-linear-search-13.java</t>
+  </si>
+  <si>
+    <t>java-linear-search.java</t>
+  </si>
+  <si>
+    <t>java-linear-serach-3.java</t>
+  </si>
+  <si>
+    <t>JAVA-linearSearch3.java</t>
+  </si>
+  <si>
+    <t>JavaLinearSearch3.java</t>
+  </si>
+  <si>
+    <t>javascript-linear-search-2.js</t>
+  </si>
+  <si>
+    <t>javascript-linear-search.js</t>
+  </si>
+  <si>
+    <t>Linear Search.java</t>
+  </si>
+  <si>
+    <t>linear_search (2).java</t>
+  </si>
+  <si>
+    <t>linear_search (2).py</t>
+  </si>
+  <si>
+    <t>Linear_Search (3).java</t>
+  </si>
+  <si>
+    <t>linear_search (3).py</t>
+  </si>
+  <si>
+    <t>linear_search (4).py</t>
+  </si>
+  <si>
+    <t>linear_search (5).py</t>
+  </si>
+  <si>
+    <t>linear_search (6).py</t>
+  </si>
+  <si>
+    <t>linear_search_with_sentinel.py</t>
+  </si>
+  <si>
+    <t>linear_search.java</t>
+  </si>
+  <si>
+    <t>linear_search.js</t>
+  </si>
+  <si>
+    <t>linear_search.py</t>
+  </si>
+  <si>
+    <t>linear.py</t>
+  </si>
+  <si>
+    <t>LinearSearch (2).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (2).js</t>
+  </si>
+  <si>
+    <t>LinearSearch (2).py</t>
+  </si>
+  <si>
+    <t>LinearSearch (3).java</t>
+  </si>
+  <si>
+    <t>linearSearch (3).js</t>
+  </si>
+  <si>
+    <t>LinearSearch (4).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (4).js</t>
+  </si>
+  <si>
+    <t>LinearSearch (5).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (5).js</t>
+  </si>
+  <si>
+    <t>linearSearch (6).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (7).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (8).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (9).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (10).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (11).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (12).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (13).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (14).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (15).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (16).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (17).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (18).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (19).java</t>
+  </si>
+  <si>
+    <t>LinearSearch (20).java</t>
+  </si>
+  <si>
+    <t>LinearSearch.java</t>
+  </si>
+  <si>
+    <t>linearSearch.js</t>
+  </si>
+  <si>
+    <t>LinearSearch.py</t>
+  </si>
+  <si>
+    <t>MyLinearSearch.java</t>
+  </si>
+  <si>
+    <t>OrderedArray.java</t>
+  </si>
+  <si>
+    <t>Python (2).py</t>
+  </si>
+  <si>
+    <t>Python (3).py</t>
+  </si>
+  <si>
+    <t>python-linear-search-2.py</t>
+  </si>
+  <si>
+    <t>python-linear-search.py</t>
+  </si>
+  <si>
+    <t>Python.py</t>
+  </si>
+  <si>
+    <t>python3-linear-search-2.py</t>
+  </si>
+  <si>
+    <t>python3-linear-search-3.py</t>
+  </si>
+  <si>
+    <t>python3-linear-search-4.py</t>
+  </si>
+  <si>
+    <t>python3-linear-search-5.py</t>
+  </si>
+  <si>
+    <t>python3-linear-search-6.py</t>
+  </si>
+  <si>
+    <t>python3-linear-search.py</t>
+  </si>
+  <si>
+    <t>QuickSelect.java</t>
+  </si>
+  <si>
+    <t>SaddlebackSearch (2).java</t>
+  </si>
+  <si>
+    <t>SaddlebackSearch (3).java</t>
+  </si>
+  <si>
+    <t>SaddlebackSearch (4).java</t>
+  </si>
+  <si>
+    <t>SaddlebackSearch.java</t>
+  </si>
+  <si>
+    <t>Search (2).java</t>
+  </si>
+  <si>
+    <t>Search (3).java</t>
+  </si>
+  <si>
+    <t>Search (4).java</t>
+  </si>
+  <si>
+    <t>searchMatrix.java</t>
+  </si>
+  <si>
+    <t>searchMatrix2.java</t>
+  </si>
+  <si>
+    <t>searchMatrix3.java</t>
+  </si>
+  <si>
+    <t>sentinel_linear_search (2).py</t>
+  </si>
+  <si>
+    <t>sentinel_linear_search (3).py</t>
+  </si>
+  <si>
+    <t>sentinel_linear_search.py</t>
+  </si>
+  <si>
+    <t>SequentialSearchST.java</t>
+  </si>
+  <si>
+    <t>stringPatternSearch.js</t>
+  </si>
+  <si>
+    <t>UnorderedArray.java</t>
+  </si>
+  <si>
+    <t>WordCounter.java</t>
+  </si>
+  <si>
+    <t>adv bubble sort.py</t>
+  </si>
+  <si>
+    <t>BetterBubbleSorter.java</t>
+  </si>
+  <si>
+    <t>Bubble (2).java</t>
+  </si>
+  <si>
+    <t>bubble (2).py</t>
+  </si>
+  <si>
+    <t>Bubble (3).java</t>
+  </si>
+  <si>
+    <t>bubble (3).py</t>
+  </si>
+  <si>
+    <t>bubble sort (2).py</t>
+  </si>
+  <si>
+    <t>bubble sort.py</t>
+  </si>
+  <si>
+    <t>bubble_sort (2).java</t>
+  </si>
+  <si>
+    <t>bubble_sort (2).py</t>
+  </si>
+  <si>
+    <t>bubble_sort (3).java</t>
+  </si>
+  <si>
+    <t>bubble_sort (3).py</t>
+  </si>
+  <si>
+    <t>Bubble_Sort (4).java</t>
+  </si>
+  <si>
+    <t>bubble_sort (4).py</t>
+  </si>
+  <si>
+    <t>Bubble_sort (5).java</t>
+  </si>
+  <si>
+    <t>bubble_sort (5).py</t>
+  </si>
+  <si>
+    <t>bubble_sort (6).py</t>
+  </si>
+  <si>
+    <t>bubble_sort (7).py</t>
+  </si>
+  <si>
+    <t>bubble_sort (8).py</t>
+  </si>
+  <si>
+    <t>bubble_sort (9).py</t>
   </si>
 </sst>
 </file>
@@ -1606,11 +2191,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E621E51-50FD-4EF4-866F-BB44D85D3FB2}">
-  <dimension ref="A1:O401"/>
+  <dimension ref="A1:O601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A402" sqref="A402"/>
+      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F601" sqref="F601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14472,6 +15057,6406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>1</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>1</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>1</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>1</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>1</v>
+      </c>
+      <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+      <c r="H407">
+        <v>1</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408">
+        <v>1</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>1</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+      <c r="H411">
+        <v>1</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>1</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413">
+        <v>1</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>1</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+      <c r="H415">
+        <v>1</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>1</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>1</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>1</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>1</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+      <c r="H420">
+        <v>1</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+      <c r="H421">
+        <v>1</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+      <c r="H422">
+        <v>1</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+      <c r="H423">
+        <v>1</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+      <c r="H424">
+        <v>1</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+      <c r="H425">
+        <v>1</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>1</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>1</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>1</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>1</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>1</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>1</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442">
+        <v>0</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>0</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>0</v>
+      </c>
+      <c r="H445">
+        <v>1</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446">
+        <v>1</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>0</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>0</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>0</v>
+      </c>
+      <c r="H453">
+        <v>0</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+      <c r="H454">
+        <v>0</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
+      </c>
+      <c r="H455">
+        <v>0</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+      <c r="G456">
+        <v>0</v>
+      </c>
+      <c r="H456">
+        <v>1</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
+      <c r="H457">
+        <v>1</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="G458">
+        <v>0</v>
+      </c>
+      <c r="H458">
+        <v>1</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>0</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+      <c r="H459">
+        <v>1</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+      <c r="H460">
+        <v>1</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>1</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>0</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+      <c r="H464">
+        <v>0</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>0</v>
+      </c>
+      <c r="G465">
+        <v>0</v>
+      </c>
+      <c r="H465">
+        <v>1</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+      <c r="H466">
+        <v>1</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>159</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>465</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>0</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>466</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+      <c r="H469">
+        <v>0</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>467</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>468</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>469</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>1</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>470</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>0</v>
+      </c>
+      <c r="H473">
+        <v>1</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>471</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>0</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>1</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>472</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+      <c r="H475">
+        <v>1</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>198</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>1</v>
+      </c>
+      <c r="I476">
+        <v>0</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>473</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>1</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>474</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478">
+        <v>1</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>475</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>0</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>1</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>476</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>0</v>
+      </c>
+      <c r="H480">
+        <v>1</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>477</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>1</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>478</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>479</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>0</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>480</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>0</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>481</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>0</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="J485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>361</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>482</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>0</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+      <c r="I487">
+        <v>0</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>483</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+      <c r="H488">
+        <v>1</v>
+      </c>
+      <c r="I488">
+        <v>0</v>
+      </c>
+      <c r="J488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>484</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>1</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+      <c r="H489">
+        <v>1</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>485</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+      <c r="H490">
+        <v>1</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>486</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>487</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>0</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>488</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>489</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494">
+        <v>0</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>0</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>490</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495">
+        <v>0</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>0</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+      <c r="H495">
+        <v>0</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>491</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+      <c r="E496">
+        <v>0</v>
+      </c>
+      <c r="F496">
+        <v>0</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>492</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+      <c r="E497">
+        <v>0</v>
+      </c>
+      <c r="F497">
+        <v>0</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+      <c r="H497">
+        <v>0</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>493</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>494</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+      <c r="I499">
+        <v>0</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>495</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>496</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501">
+        <v>1</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>497</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502">
+        <v>0</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>498</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+      <c r="G503">
+        <v>1</v>
+      </c>
+      <c r="H503">
+        <v>0</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>499</v>
+      </c>
+      <c r="B504">
+        <v>0</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504">
+        <v>0</v>
+      </c>
+      <c r="F504">
+        <v>0</v>
+      </c>
+      <c r="G504">
+        <v>1</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>500</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+      <c r="E505">
+        <v>0</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>501</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>502</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
+      <c r="F507">
+        <v>0</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507">
+        <v>0</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>503</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+      <c r="E508">
+        <v>0</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>1</v>
+      </c>
+      <c r="H508">
+        <v>0</v>
+      </c>
+      <c r="I508">
+        <v>0</v>
+      </c>
+      <c r="J508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>504</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+      <c r="E509">
+        <v>0</v>
+      </c>
+      <c r="F509">
+        <v>0</v>
+      </c>
+      <c r="G509">
+        <v>1</v>
+      </c>
+      <c r="H509">
+        <v>0</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>505</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>0</v>
+      </c>
+      <c r="E510">
+        <v>0</v>
+      </c>
+      <c r="F510">
+        <v>0</v>
+      </c>
+      <c r="G510">
+        <v>1</v>
+      </c>
+      <c r="H510">
+        <v>0</v>
+      </c>
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>506</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+      <c r="E511">
+        <v>0</v>
+      </c>
+      <c r="F511">
+        <v>0</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>507</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+      <c r="E512">
+        <v>0</v>
+      </c>
+      <c r="F512">
+        <v>0</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>0</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>508</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+      <c r="E513">
+        <v>0</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+      <c r="G513">
+        <v>1</v>
+      </c>
+      <c r="H513">
+        <v>0</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>509</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+      <c r="E514">
+        <v>0</v>
+      </c>
+      <c r="F514">
+        <v>0</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+      <c r="I514">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>510</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515">
+        <v>0</v>
+      </c>
+      <c r="E515">
+        <v>0</v>
+      </c>
+      <c r="F515">
+        <v>0</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+      <c r="H515">
+        <v>0</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>511</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516">
+        <v>0</v>
+      </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>512</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>513</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+      <c r="G518">
+        <v>1</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>514</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+      <c r="G519">
+        <v>1</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>0</v>
+      </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>515</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
+      <c r="G520">
+        <v>1</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>516</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>517</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+      <c r="H522">
+        <v>0</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>518</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523">
+        <v>0</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523">
+        <v>0</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>519</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524">
+        <v>0</v>
+      </c>
+      <c r="G524">
+        <v>1</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+      <c r="I524">
+        <v>0</v>
+      </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>520</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>0</v>
+      </c>
+      <c r="E525">
+        <v>0</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>0</v>
+      </c>
+      <c r="I525">
+        <v>0</v>
+      </c>
+      <c r="J525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>521</v>
+      </c>
+      <c r="B526">
+        <v>0</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+      <c r="G526">
+        <v>1</v>
+      </c>
+      <c r="H526">
+        <v>0</v>
+      </c>
+      <c r="I526">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>522</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>1</v>
+      </c>
+      <c r="H527">
+        <v>0</v>
+      </c>
+      <c r="I527">
+        <v>0</v>
+      </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>523</v>
+      </c>
+      <c r="B528">
+        <v>0</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
+        <v>0</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+      <c r="G528">
+        <v>1</v>
+      </c>
+      <c r="H528">
+        <v>0</v>
+      </c>
+      <c r="I528">
+        <v>0</v>
+      </c>
+      <c r="J528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>524</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
+      <c r="F529">
+        <v>0</v>
+      </c>
+      <c r="G529">
+        <v>1</v>
+      </c>
+      <c r="H529">
+        <v>0</v>
+      </c>
+      <c r="I529">
+        <v>0</v>
+      </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>525</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
+      </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530">
+        <v>0</v>
+      </c>
+      <c r="G530">
+        <v>1</v>
+      </c>
+      <c r="H530">
+        <v>0</v>
+      </c>
+      <c r="I530">
+        <v>0</v>
+      </c>
+      <c r="J530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>526</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531">
+        <v>0</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>0</v>
+      </c>
+      <c r="G531">
+        <v>1</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+      <c r="I531">
+        <v>0</v>
+      </c>
+      <c r="J531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>527</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532">
+        <v>0</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+      <c r="G532">
+        <v>1</v>
+      </c>
+      <c r="H532">
+        <v>0</v>
+      </c>
+      <c r="I532">
+        <v>0</v>
+      </c>
+      <c r="J532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>528</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>0</v>
+      </c>
+      <c r="G533">
+        <v>1</v>
+      </c>
+      <c r="H533">
+        <v>0</v>
+      </c>
+      <c r="I533">
+        <v>0</v>
+      </c>
+      <c r="J533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>529</v>
+      </c>
+      <c r="B534">
+        <v>0</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>0</v>
+      </c>
+      <c r="G534">
+        <v>1</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
+      </c>
+      <c r="I534">
+        <v>0</v>
+      </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>530</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535">
+        <v>0</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+      <c r="F535">
+        <v>0</v>
+      </c>
+      <c r="G535">
+        <v>1</v>
+      </c>
+      <c r="H535">
+        <v>0</v>
+      </c>
+      <c r="I535">
+        <v>0</v>
+      </c>
+      <c r="J535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>531</v>
+      </c>
+      <c r="B536">
+        <v>0</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536">
+        <v>0</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536">
+        <v>0</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+      <c r="H536">
+        <v>0</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="J536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>532</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537">
+        <v>0</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>0</v>
+      </c>
+      <c r="G537">
+        <v>1</v>
+      </c>
+      <c r="H537">
+        <v>0</v>
+      </c>
+      <c r="I537">
+        <v>0</v>
+      </c>
+      <c r="J537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>533</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>0</v>
+      </c>
+      <c r="G538">
+        <v>1</v>
+      </c>
+      <c r="H538">
+        <v>0</v>
+      </c>
+      <c r="I538">
+        <v>0</v>
+      </c>
+      <c r="J538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>534</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>0</v>
+      </c>
+      <c r="G539">
+        <v>1</v>
+      </c>
+      <c r="H539">
+        <v>0</v>
+      </c>
+      <c r="I539">
+        <v>0</v>
+      </c>
+      <c r="J539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>535</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>0</v>
+      </c>
+      <c r="G540">
+        <v>1</v>
+      </c>
+      <c r="H540">
+        <v>0</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>536</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>0</v>
+      </c>
+      <c r="G541">
+        <v>1</v>
+      </c>
+      <c r="H541">
+        <v>0</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+      <c r="J541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>537</v>
+      </c>
+      <c r="B542">
+        <v>0</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>0</v>
+      </c>
+      <c r="G542">
+        <v>1</v>
+      </c>
+      <c r="H542">
+        <v>0</v>
+      </c>
+      <c r="I542">
+        <v>0</v>
+      </c>
+      <c r="J542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>538</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+      <c r="H543">
+        <v>0</v>
+      </c>
+      <c r="I543">
+        <v>0</v>
+      </c>
+      <c r="J543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>539</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>0</v>
+      </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+      <c r="G544">
+        <v>1</v>
+      </c>
+      <c r="H544">
+        <v>0</v>
+      </c>
+      <c r="I544">
+        <v>0</v>
+      </c>
+      <c r="J544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>540</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545">
+        <v>0</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+      <c r="G545">
+        <v>1</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+      <c r="I545">
+        <v>0</v>
+      </c>
+      <c r="J545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>541</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+      <c r="E546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+      <c r="G546">
+        <v>1</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+      <c r="I546">
+        <v>0</v>
+      </c>
+      <c r="J546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>542</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+      <c r="C547">
+        <v>0</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>0</v>
+      </c>
+      <c r="G547">
+        <v>1</v>
+      </c>
+      <c r="H547">
+        <v>0</v>
+      </c>
+      <c r="I547">
+        <v>0</v>
+      </c>
+      <c r="J547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>543</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+      <c r="G548">
+        <v>1</v>
+      </c>
+      <c r="H548">
+        <v>0</v>
+      </c>
+      <c r="I548">
+        <v>0</v>
+      </c>
+      <c r="J548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>159</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="D549">
+        <v>0</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+      <c r="G549">
+        <v>0</v>
+      </c>
+      <c r="H549">
+        <v>0</v>
+      </c>
+      <c r="I549">
+        <v>0</v>
+      </c>
+      <c r="J549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>544</v>
+      </c>
+      <c r="B550">
+        <v>0</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="F550">
+        <v>0</v>
+      </c>
+      <c r="G550">
+        <v>1</v>
+      </c>
+      <c r="H550">
+        <v>0</v>
+      </c>
+      <c r="I550">
+        <v>0</v>
+      </c>
+      <c r="J550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>545</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>0</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
+      </c>
+      <c r="H551">
+        <v>0</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+      <c r="J551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>546</v>
+      </c>
+      <c r="B552">
+        <v>0</v>
+      </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="D552">
+        <v>0</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+      <c r="F552">
+        <v>0</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552">
+        <v>0</v>
+      </c>
+      <c r="I552">
+        <v>0</v>
+      </c>
+      <c r="J552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>547</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+      <c r="C553">
+        <v>0</v>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="F553">
+        <v>0</v>
+      </c>
+      <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553">
+        <v>0</v>
+      </c>
+      <c r="I553">
+        <v>0</v>
+      </c>
+      <c r="J553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>548</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+      <c r="G554">
+        <v>1</v>
+      </c>
+      <c r="H554">
+        <v>0</v>
+      </c>
+      <c r="I554">
+        <v>0</v>
+      </c>
+      <c r="J554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>549</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+      <c r="D555">
+        <v>0</v>
+      </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
+      <c r="F555">
+        <v>0</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+      <c r="H555">
+        <v>0</v>
+      </c>
+      <c r="I555">
+        <v>0</v>
+      </c>
+      <c r="J555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>550</v>
+      </c>
+      <c r="B556">
+        <v>0</v>
+      </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
+      <c r="D556">
+        <v>0</v>
+      </c>
+      <c r="E556">
+        <v>0</v>
+      </c>
+      <c r="F556">
+        <v>0</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+      <c r="H556">
+        <v>0</v>
+      </c>
+      <c r="I556">
+        <v>0</v>
+      </c>
+      <c r="J556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>551</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+      <c r="C557">
+        <v>0</v>
+      </c>
+      <c r="D557">
+        <v>0</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+      <c r="F557">
+        <v>0</v>
+      </c>
+      <c r="G557">
+        <v>1</v>
+      </c>
+      <c r="H557">
+        <v>0</v>
+      </c>
+      <c r="I557">
+        <v>0</v>
+      </c>
+      <c r="J557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>552</v>
+      </c>
+      <c r="B558">
+        <v>0</v>
+      </c>
+      <c r="C558">
+        <v>0</v>
+      </c>
+      <c r="D558">
+        <v>0</v>
+      </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558">
+        <v>0</v>
+      </c>
+      <c r="H558">
+        <v>0</v>
+      </c>
+      <c r="I558">
+        <v>0</v>
+      </c>
+      <c r="J558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>553</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+      <c r="D559">
+        <v>0</v>
+      </c>
+      <c r="E559">
+        <v>0</v>
+      </c>
+      <c r="F559">
+        <v>0</v>
+      </c>
+      <c r="G559">
+        <v>1</v>
+      </c>
+      <c r="H559">
+        <v>0</v>
+      </c>
+      <c r="I559">
+        <v>0</v>
+      </c>
+      <c r="J559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>554</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
+      </c>
+      <c r="F560">
+        <v>0</v>
+      </c>
+      <c r="G560">
+        <v>1</v>
+      </c>
+      <c r="H560">
+        <v>0</v>
+      </c>
+      <c r="I560">
+        <v>0</v>
+      </c>
+      <c r="J560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>555</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+      <c r="D561">
+        <v>0</v>
+      </c>
+      <c r="E561">
+        <v>0</v>
+      </c>
+      <c r="F561">
+        <v>0</v>
+      </c>
+      <c r="G561">
+        <v>1</v>
+      </c>
+      <c r="H561">
+        <v>0</v>
+      </c>
+      <c r="I561">
+        <v>0</v>
+      </c>
+      <c r="J561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>556</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+      <c r="D562">
+        <v>0</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+      <c r="F562">
+        <v>0</v>
+      </c>
+      <c r="G562">
+        <v>1</v>
+      </c>
+      <c r="H562">
+        <v>0</v>
+      </c>
+      <c r="I562">
+        <v>0</v>
+      </c>
+      <c r="J562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>557</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
+      <c r="I563">
+        <v>0</v>
+      </c>
+      <c r="J563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>558</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>0</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564">
+        <v>0</v>
+      </c>
+      <c r="I564">
+        <v>0</v>
+      </c>
+      <c r="J564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>559</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+      <c r="D565">
+        <v>0</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
+      <c r="I565">
+        <v>0</v>
+      </c>
+      <c r="J565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>560</v>
+      </c>
+      <c r="B566">
+        <v>0</v>
+      </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>0</v>
+      </c>
+      <c r="H566">
+        <v>0</v>
+      </c>
+      <c r="I566">
+        <v>0</v>
+      </c>
+      <c r="J566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>561</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567">
+        <v>0</v>
+      </c>
+      <c r="I567">
+        <v>0</v>
+      </c>
+      <c r="J567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>562</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+      <c r="D568">
+        <v>0</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568">
+        <v>1</v>
+      </c>
+      <c r="I568">
+        <v>0</v>
+      </c>
+      <c r="J568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>563</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+      <c r="D569">
+        <v>0</v>
+      </c>
+      <c r="E569">
+        <v>0</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569">
+        <v>1</v>
+      </c>
+      <c r="I569">
+        <v>0</v>
+      </c>
+      <c r="J569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>564</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>0</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
+      <c r="I570">
+        <v>0</v>
+      </c>
+      <c r="J570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>473</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+      <c r="C571">
+        <v>0</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571">
+        <v>1</v>
+      </c>
+      <c r="I571">
+        <v>0</v>
+      </c>
+      <c r="J571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>565</v>
+      </c>
+      <c r="B572">
+        <v>0</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572">
+        <v>0</v>
+      </c>
+      <c r="I572">
+        <v>0</v>
+      </c>
+      <c r="J572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>566</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>0</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>0</v>
+      </c>
+      <c r="H573">
+        <v>0</v>
+      </c>
+      <c r="I573">
+        <v>0</v>
+      </c>
+      <c r="J573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>567</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+      <c r="C574">
+        <v>0</v>
+      </c>
+      <c r="D574">
+        <v>0</v>
+      </c>
+      <c r="E574">
+        <v>0</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>0</v>
+      </c>
+      <c r="H574">
+        <v>0</v>
+      </c>
+      <c r="I574">
+        <v>0</v>
+      </c>
+      <c r="J574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>568</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+      <c r="D575">
+        <v>0</v>
+      </c>
+      <c r="E575">
+        <v>0</v>
+      </c>
+      <c r="F575">
+        <v>0</v>
+      </c>
+      <c r="G575">
+        <v>1</v>
+      </c>
+      <c r="H575">
+        <v>0</v>
+      </c>
+      <c r="I575">
+        <v>0</v>
+      </c>
+      <c r="J575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>569</v>
+      </c>
+      <c r="B576">
+        <v>0</v>
+      </c>
+      <c r="C576">
+        <v>0</v>
+      </c>
+      <c r="D576">
+        <v>0</v>
+      </c>
+      <c r="E576">
+        <v>0</v>
+      </c>
+      <c r="F576">
+        <v>0</v>
+      </c>
+      <c r="G576">
+        <v>1</v>
+      </c>
+      <c r="H576">
+        <v>0</v>
+      </c>
+      <c r="I576">
+        <v>0</v>
+      </c>
+      <c r="J576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>570</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+      <c r="D577">
+        <v>0</v>
+      </c>
+      <c r="E577">
+        <v>0</v>
+      </c>
+      <c r="F577">
+        <v>0</v>
+      </c>
+      <c r="G577">
+        <v>1</v>
+      </c>
+      <c r="H577">
+        <v>0</v>
+      </c>
+      <c r="I577">
+        <v>0</v>
+      </c>
+      <c r="J577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>571</v>
+      </c>
+      <c r="B578">
+        <v>0</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578">
+        <v>0</v>
+      </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
+      <c r="F578">
+        <v>0</v>
+      </c>
+      <c r="G578">
+        <v>1</v>
+      </c>
+      <c r="H578">
+        <v>0</v>
+      </c>
+      <c r="I578">
+        <v>0</v>
+      </c>
+      <c r="J578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>572</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="D579">
+        <v>0</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+      <c r="F579">
+        <v>0</v>
+      </c>
+      <c r="G579">
+        <v>0</v>
+      </c>
+      <c r="H579">
+        <v>0</v>
+      </c>
+      <c r="I579">
+        <v>0</v>
+      </c>
+      <c r="J579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>573</v>
+      </c>
+      <c r="B580">
+        <v>0</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+      <c r="D580">
+        <v>0</v>
+      </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
+      <c r="F580">
+        <v>0</v>
+      </c>
+      <c r="G580">
+        <v>1</v>
+      </c>
+      <c r="H580">
+        <v>0</v>
+      </c>
+      <c r="I580">
+        <v>0</v>
+      </c>
+      <c r="J580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>574</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+      <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581">
+        <v>0</v>
+      </c>
+      <c r="E581">
+        <v>0</v>
+      </c>
+      <c r="F581">
+        <v>0</v>
+      </c>
+      <c r="G581">
+        <v>1</v>
+      </c>
+      <c r="H581">
+        <v>0</v>
+      </c>
+      <c r="I581">
+        <v>0</v>
+      </c>
+      <c r="J581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>575</v>
+      </c>
+      <c r="B582">
+        <v>0</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582">
+        <v>0</v>
+      </c>
+      <c r="E582">
+        <v>0</v>
+      </c>
+      <c r="F582">
+        <v>1</v>
+      </c>
+      <c r="G582">
+        <v>0</v>
+      </c>
+      <c r="H582">
+        <v>0</v>
+      </c>
+      <c r="I582">
+        <v>0</v>
+      </c>
+      <c r="J582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>576</v>
+      </c>
+      <c r="B583">
+        <v>0</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+      <c r="D583">
+        <v>0</v>
+      </c>
+      <c r="E583">
+        <v>0</v>
+      </c>
+      <c r="F583">
+        <v>1</v>
+      </c>
+      <c r="G583">
+        <v>0</v>
+      </c>
+      <c r="H583">
+        <v>0</v>
+      </c>
+      <c r="I583">
+        <v>0</v>
+      </c>
+      <c r="J583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>577</v>
+      </c>
+      <c r="B584">
+        <v>0</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584">
+        <v>0</v>
+      </c>
+      <c r="E584">
+        <v>0</v>
+      </c>
+      <c r="F584">
+        <v>1</v>
+      </c>
+      <c r="G584">
+        <v>0</v>
+      </c>
+      <c r="H584">
+        <v>0</v>
+      </c>
+      <c r="I584">
+        <v>0</v>
+      </c>
+      <c r="J584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>578</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+      <c r="C585">
+        <v>0</v>
+      </c>
+      <c r="D585">
+        <v>0</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+      <c r="F585">
+        <v>1</v>
+      </c>
+      <c r="G585">
+        <v>0</v>
+      </c>
+      <c r="H585">
+        <v>0</v>
+      </c>
+      <c r="I585">
+        <v>0</v>
+      </c>
+      <c r="J585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>579</v>
+      </c>
+      <c r="B586">
+        <v>0</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586">
+        <v>0</v>
+      </c>
+      <c r="E586">
+        <v>0</v>
+      </c>
+      <c r="F586">
+        <v>0</v>
+      </c>
+      <c r="G586">
+        <v>0</v>
+      </c>
+      <c r="H586">
+        <v>0</v>
+      </c>
+      <c r="I586">
+        <v>0</v>
+      </c>
+      <c r="J586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>580</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+      <c r="D587">
+        <v>0</v>
+      </c>
+      <c r="E587">
+        <v>0</v>
+      </c>
+      <c r="F587">
+        <v>1</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587">
+        <v>0</v>
+      </c>
+      <c r="I587">
+        <v>0</v>
+      </c>
+      <c r="J587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>581</v>
+      </c>
+      <c r="B588">
+        <v>0</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>1</v>
+      </c>
+      <c r="G588">
+        <v>0</v>
+      </c>
+      <c r="H588">
+        <v>0</v>
+      </c>
+      <c r="I588">
+        <v>0</v>
+      </c>
+      <c r="J588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>582</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589">
+        <v>0</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>1</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+      <c r="H589">
+        <v>0</v>
+      </c>
+      <c r="I589">
+        <v>0</v>
+      </c>
+      <c r="J589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>583</v>
+      </c>
+      <c r="B590">
+        <v>0</v>
+      </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>0</v>
+      </c>
+      <c r="F590">
+        <v>1</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590">
+        <v>0</v>
+      </c>
+      <c r="I590">
+        <v>0</v>
+      </c>
+      <c r="J590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>584</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591">
+        <v>0</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+      <c r="F591">
+        <v>1</v>
+      </c>
+      <c r="G591">
+        <v>0</v>
+      </c>
+      <c r="H591">
+        <v>0</v>
+      </c>
+      <c r="I591">
+        <v>0</v>
+      </c>
+      <c r="J591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>585</v>
+      </c>
+      <c r="B592">
+        <v>0</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592">
+        <v>0</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+      <c r="F592">
+        <v>1</v>
+      </c>
+      <c r="G592">
+        <v>0</v>
+      </c>
+      <c r="H592">
+        <v>0</v>
+      </c>
+      <c r="I592">
+        <v>0</v>
+      </c>
+      <c r="J592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>586</v>
+      </c>
+      <c r="B593">
+        <v>0</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593">
+        <v>0</v>
+      </c>
+      <c r="E593">
+        <v>0</v>
+      </c>
+      <c r="F593">
+        <v>1</v>
+      </c>
+      <c r="G593">
+        <v>0</v>
+      </c>
+      <c r="H593">
+        <v>0</v>
+      </c>
+      <c r="I593">
+        <v>0</v>
+      </c>
+      <c r="J593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>587</v>
+      </c>
+      <c r="B594">
+        <v>0</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594">
+        <v>0</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+      <c r="F594">
+        <v>1</v>
+      </c>
+      <c r="G594">
+        <v>0</v>
+      </c>
+      <c r="H594">
+        <v>0</v>
+      </c>
+      <c r="I594">
+        <v>0</v>
+      </c>
+      <c r="J594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>588</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595">
+        <v>0</v>
+      </c>
+      <c r="E595">
+        <v>0</v>
+      </c>
+      <c r="F595">
+        <v>1</v>
+      </c>
+      <c r="G595">
+        <v>0</v>
+      </c>
+      <c r="H595">
+        <v>0</v>
+      </c>
+      <c r="I595">
+        <v>0</v>
+      </c>
+      <c r="J595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>589</v>
+      </c>
+      <c r="B596">
+        <v>0</v>
+      </c>
+      <c r="C596">
+        <v>0</v>
+      </c>
+      <c r="D596">
+        <v>0</v>
+      </c>
+      <c r="E596">
+        <v>0</v>
+      </c>
+      <c r="F596">
+        <v>1</v>
+      </c>
+      <c r="G596">
+        <v>0</v>
+      </c>
+      <c r="H596">
+        <v>0</v>
+      </c>
+      <c r="I596">
+        <v>0</v>
+      </c>
+      <c r="J596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>590</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+      <c r="C597">
+        <v>0</v>
+      </c>
+      <c r="D597">
+        <v>0</v>
+      </c>
+      <c r="E597">
+        <v>0</v>
+      </c>
+      <c r="F597">
+        <v>1</v>
+      </c>
+      <c r="G597">
+        <v>0</v>
+      </c>
+      <c r="H597">
+        <v>0</v>
+      </c>
+      <c r="I597">
+        <v>0</v>
+      </c>
+      <c r="J597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>591</v>
+      </c>
+      <c r="B598">
+        <v>0</v>
+      </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+      <c r="E598">
+        <v>0</v>
+      </c>
+      <c r="F598">
+        <v>1</v>
+      </c>
+      <c r="G598">
+        <v>0</v>
+      </c>
+      <c r="H598">
+        <v>0</v>
+      </c>
+      <c r="I598">
+        <v>0</v>
+      </c>
+      <c r="J598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>592</v>
+      </c>
+      <c r="B599">
+        <v>0</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+      <c r="D599">
+        <v>0</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+      <c r="F599">
+        <v>1</v>
+      </c>
+      <c r="G599">
+        <v>0</v>
+      </c>
+      <c r="H599">
+        <v>0</v>
+      </c>
+      <c r="I599">
+        <v>0</v>
+      </c>
+      <c r="J599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>593</v>
+      </c>
+      <c r="B600">
+        <v>0</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600">
+        <v>0</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+      <c r="F600">
+        <v>1</v>
+      </c>
+      <c r="G600">
+        <v>0</v>
+      </c>
+      <c r="H600">
+        <v>0</v>
+      </c>
+      <c r="I600">
+        <v>0</v>
+      </c>
+      <c r="J600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>594</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+      <c r="D601">
+        <v>0</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+      <c r="F601">
+        <v>1</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601">
+        <v>0</v>
+      </c>
+      <c r="I601">
+        <v>0</v>
+      </c>
+      <c r="J601">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/John.xlsx
+++ b/John.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d03dc4ea78fd367a/Documents/S. Y. 2021-2022/1st Sem/Senior Thesis/data labeling/Final data labeling/data-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1433" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E35E0A-15EF-4BEF-971C-0E68EC58E2B0}"/>
+  <xr:revisionPtr revIDLastSave="1680" documentId="8_{571BA2EA-4107-469E-BA47-9C5166929452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8FBC9A-C118-4DCC-9311-03FDD10DC1F7}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{77CB7C1E-B4AD-45B5-9992-3E1454331525}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="701">
   <si>
     <t>Filename</t>
   </si>
@@ -66,27 +66,27 @@
     <t>Hashmap</t>
   </si>
   <si>
+    <t>AbstractHashFunction.java</t>
+  </si>
+  <si>
+    <t>AbstractHashMap (2).java</t>
+  </si>
+  <si>
     <t>2 or more algorithms implemented</t>
   </si>
   <si>
+    <t>AbstractHashMap.java</t>
+  </si>
+  <si>
     <t>Not sure</t>
   </si>
   <si>
+    <t>AbstractHashSequence.java</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>AbstractHashFunction.java</t>
-  </si>
-  <si>
-    <t>AbstractHashMap (2).java</t>
-  </si>
-  <si>
-    <t>AbstractHashMap.java</t>
-  </si>
-  <si>
-    <t>AbstractHashSequence.java</t>
-  </si>
-  <si>
     <t>AbstractMap (2).java</t>
   </si>
   <si>
@@ -1819,13 +1819,331 @@
   </si>
   <si>
     <t>bubble_sort (9).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (10).java</t>
+  </si>
+  <si>
+    <t>bubbleSort (10).js</t>
+  </si>
+  <si>
+    <t>bubbleSort (10).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (11).java</t>
+  </si>
+  <si>
+    <t>bubblesort (11).js</t>
+  </si>
+  <si>
+    <t>bubblesort (11).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (12).java</t>
+  </si>
+  <si>
+    <t>bubbleSort (12).js</t>
+  </si>
+  <si>
+    <t>bubbleSort (12).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (13).java</t>
+  </si>
+  <si>
+    <t>Bubblesort (13).js</t>
+  </si>
+  <si>
+    <t>BubbleSort (13).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (14).java</t>
+  </si>
+  <si>
+    <t>bubbleSort (14).js</t>
+  </si>
+  <si>
+    <t>BubbleSort (14).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (15).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (15).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (16).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (16).py</t>
+  </si>
+  <si>
+    <t>bubbleSort (17).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (17).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (18).java</t>
+  </si>
+  <si>
+    <t>bubbleSort (18).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (19).java</t>
+  </si>
+  <si>
+    <t>Bubblesort (19).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (20).java</t>
+  </si>
+  <si>
+    <t>bubblesort (20).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (21).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (21).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (22).java</t>
+  </si>
+  <si>
+    <t>bubbleSort (22).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (23).java</t>
+  </si>
+  <si>
+    <t>bubbleSort (23).py</t>
+  </si>
+  <si>
+    <t>BubbleSort (24).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (25).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (26).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (27).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (28).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (29).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (30).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (31).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (32).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (33).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (34).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (35).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (36).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (37).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (38).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (39).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (40).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (41).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (42).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (43).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (44).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (45).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (46).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (47).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (48).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (49).java</t>
+  </si>
+  <si>
+    <t>bubbleSort (50).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (51).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (52).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (53).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (54).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (55).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (56).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (57).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (58).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (59).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (60).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (61).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (62).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (63).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (64).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (65).java</t>
+  </si>
+  <si>
+    <t>BubbleSort (66).java</t>
+  </si>
+  <si>
+    <t>bubbleSort_iterative.py</t>
+  </si>
+  <si>
+    <t>bubbleSort_recursive.py</t>
+  </si>
+  <si>
+    <t>BubbleSort.java</t>
+  </si>
+  <si>
+    <t>bubbleSort.js</t>
+  </si>
+  <si>
+    <t>bubblesort.py</t>
+  </si>
+  <si>
+    <t>BubbleSorter (2).java</t>
+  </si>
+  <si>
+    <t>BubbleSorter.java</t>
+  </si>
+  <si>
+    <t>BubbleSortJavascript.js</t>
+  </si>
+  <si>
+    <t>BubbleSortOpt1.java</t>
+  </si>
+  <si>
+    <t>BubbleSortOpt2.java</t>
+  </si>
+  <si>
+    <t>BubbleSortOptimised.java</t>
+  </si>
+  <si>
+    <t>BubbleSortOptimized (2).java</t>
+  </si>
+  <si>
+    <t>BubbleSortOptimized (3).java</t>
+  </si>
+  <si>
+    <t>BubbleSortOptimized.java</t>
+  </si>
+  <si>
+    <t>BubbleSortParallel.java</t>
+  </si>
+  <si>
+    <t>BubbleSortParallelDivideAndConquer.java</t>
+  </si>
+  <si>
+    <t>BubbleSortParallelOddEven.java</t>
+  </si>
+  <si>
+    <t>BubbleSortRecursive.py</t>
+  </si>
+  <si>
+    <t>main.py</t>
+  </si>
+  <si>
+    <t>MergeSort.java</t>
+  </si>
+  <si>
+    <t>optimised_bubble_sort (2).java</t>
+  </si>
+  <si>
+    <t>optimised_bubble_sort.java</t>
+  </si>
+  <si>
+    <t>optimized_bubble_sort.py</t>
+  </si>
+  <si>
+    <t>OptimzedBubbleSort.java</t>
+  </si>
+  <si>
+    <t>RecursiveBubbleSort (2).java</t>
+  </si>
+  <si>
+    <t>RecursiveBubbleSort (3).java</t>
+  </si>
+  <si>
+    <t>RecursiveBubbleSort.java</t>
+  </si>
+  <si>
+    <t>script.js</t>
+  </si>
+  <si>
+    <t>Sort.java</t>
+  </si>
+  <si>
+    <t>SortingAnArray.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2191,14 +2509,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E621E51-50FD-4EF4-866F-BB44D85D3FB2}">
-  <dimension ref="A1:O601"/>
+  <dimension ref="A1:O709"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F601" sqref="F601"/>
+      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E710" sqref="E710"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -2213,7 +2531,7 @@
     <col min="15" max="15" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2245,9 +2563,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2277,9 +2595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2310,12 +2628,12 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2346,12 +2664,12 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2382,10 +2700,10 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2417,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2449,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2513,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2545,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2577,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2609,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2641,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2673,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2705,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2737,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2769,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2801,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2833,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2865,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2897,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2929,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2961,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2993,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3025,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3057,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3089,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -3121,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -3153,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3185,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3217,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3249,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -3281,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3313,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3345,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3377,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -3409,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3441,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3473,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3505,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3537,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3569,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3601,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3633,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3665,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3697,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3729,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -3761,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3793,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3825,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -3857,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -3889,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3921,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -3953,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -3985,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -4017,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -4049,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -4081,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -4113,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -4145,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -4177,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -4209,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4241,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4273,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4305,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4337,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4369,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4401,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4433,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4465,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4497,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4529,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4561,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4593,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4625,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4657,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4689,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4721,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4753,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4785,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4817,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4849,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -4881,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -4913,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -4945,7 +5263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -4977,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -5009,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -5041,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -5073,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -5105,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -5137,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -5169,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5201,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -5233,7 +5551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -5265,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -5297,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -5329,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -5361,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -5393,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -5425,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5457,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5489,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -5521,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -5553,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -5585,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -5617,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -5649,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -5681,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -5713,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -5745,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -5777,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -5809,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -5841,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -5873,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -5905,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -5937,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -5969,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -6001,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -6033,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -6065,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -6097,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -6129,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -6161,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -6193,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -6225,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -6257,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -6289,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -6321,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -6353,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -6385,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -6417,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -6449,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -6481,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -6513,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -6545,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -6577,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -6609,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -6641,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -6673,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -6705,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -6737,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -6769,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>154</v>
       </c>
@@ -6801,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -6833,7 +7151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -6865,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>157</v>
       </c>
@@ -6897,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -6929,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -6961,7 +7279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>160</v>
       </c>
@@ -6993,7 +7311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -7025,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -7057,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -7089,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -7121,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -7153,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>166</v>
       </c>
@@ -7185,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>167</v>
       </c>
@@ -7217,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -7249,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -7281,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -7313,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>171</v>
       </c>
@@ -7345,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>172</v>
       </c>
@@ -7377,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -7409,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -7441,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>175</v>
       </c>
@@ -7473,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>176</v>
       </c>
@@ -7505,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>177</v>
       </c>
@@ -7537,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>178</v>
       </c>
@@ -7569,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>179</v>
       </c>
@@ -7601,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>180</v>
       </c>
@@ -7633,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -7665,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>182</v>
       </c>
@@ -7697,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>183</v>
       </c>
@@ -7729,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -7761,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>185</v>
       </c>
@@ -7793,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>186</v>
       </c>
@@ -7825,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -7857,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>188</v>
       </c>
@@ -7889,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -7921,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>190</v>
       </c>
@@ -7953,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -7985,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>192</v>
       </c>
@@ -8017,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>193</v>
       </c>
@@ -8049,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>194</v>
       </c>
@@ -8081,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>195</v>
       </c>
@@ -8113,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>196</v>
       </c>
@@ -8145,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
         <v>197</v>
       </c>
@@ -8177,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>198</v>
       </c>
@@ -8209,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
         <v>199</v>
       </c>
@@ -8241,7 +8559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -8273,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
         <v>201</v>
       </c>
@@ -8305,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>202</v>
       </c>
@@ -8337,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>203</v>
       </c>
@@ -8369,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>204</v>
       </c>
@@ -8401,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>205</v>
       </c>
@@ -8433,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>206</v>
       </c>
@@ -8465,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>207</v>
       </c>
@@ -8497,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>208</v>
       </c>
@@ -8529,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -8561,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>210</v>
       </c>
@@ -8593,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>211</v>
       </c>
@@ -8625,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>212</v>
       </c>
@@ -8657,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>213</v>
       </c>
@@ -8689,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>214</v>
       </c>
@@ -8721,7 +9039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>215</v>
       </c>
@@ -8753,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>216</v>
       </c>
@@ -8785,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>217</v>
       </c>
@@ -8817,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>218</v>
       </c>
@@ -8849,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>219</v>
       </c>
@@ -8881,7 +9199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>220</v>
       </c>
@@ -8913,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>221</v>
       </c>
@@ -8945,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>222</v>
       </c>
@@ -8977,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>223</v>
       </c>
@@ -9009,7 +9327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>224</v>
       </c>
@@ -9041,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>225</v>
       </c>
@@ -9073,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>226</v>
       </c>
@@ -9105,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>227</v>
       </c>
@@ -9137,7 +9455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>228</v>
       </c>
@@ -9169,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>229</v>
       </c>
@@ -9201,7 +9519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>230</v>
       </c>
@@ -9233,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>231</v>
       </c>
@@ -9265,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -9297,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>233</v>
       </c>
@@ -9329,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>234</v>
       </c>
@@ -9361,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>235</v>
       </c>
@@ -9393,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>236</v>
       </c>
@@ -9425,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>237</v>
       </c>
@@ -9457,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>238</v>
       </c>
@@ -9489,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>239</v>
       </c>
@@ -9521,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -9553,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>241</v>
       </c>
@@ -9585,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
         <v>242</v>
       </c>
@@ -9617,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>243</v>
       </c>
@@ -9649,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>244</v>
       </c>
@@ -9681,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
         <v>245</v>
       </c>
@@ -9713,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
         <v>246</v>
       </c>
@@ -9745,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>247</v>
       </c>
@@ -9777,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>248</v>
       </c>
@@ -9809,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>249</v>
       </c>
@@ -9841,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>250</v>
       </c>
@@ -9873,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>251</v>
       </c>
@@ -9905,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
         <v>252</v>
       </c>
@@ -9937,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
         <v>253</v>
       </c>
@@ -9969,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
         <v>254</v>
       </c>
@@ -10001,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
         <v>255</v>
       </c>
@@ -10033,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
         <v>256</v>
       </c>
@@ -10065,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
         <v>257</v>
       </c>
@@ -10097,7 +10415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -10129,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
         <v>259</v>
       </c>
@@ -10161,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
         <v>260</v>
       </c>
@@ -10193,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
         <v>261</v>
       </c>
@@ -10225,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
         <v>262</v>
       </c>
@@ -10257,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10">
       <c r="A252" t="s">
         <v>263</v>
       </c>
@@ -10289,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10">
       <c r="A253" t="s">
         <v>264</v>
       </c>
@@ -10321,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10">
       <c r="A254" t="s">
         <v>265</v>
       </c>
@@ -10353,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10">
       <c r="A255" t="s">
         <v>70</v>
       </c>
@@ -10385,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10">
       <c r="A256" t="s">
         <v>266</v>
       </c>
@@ -10417,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>267</v>
       </c>
@@ -10449,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10">
       <c r="A258" t="s">
         <v>268</v>
       </c>
@@ -10481,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>269</v>
       </c>
@@ -10513,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10">
       <c r="A260" t="s">
         <v>270</v>
       </c>
@@ -10545,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>271</v>
       </c>
@@ -10577,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>272</v>
       </c>
@@ -10609,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>273</v>
       </c>
@@ -10641,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10">
       <c r="A264" t="s">
         <v>274</v>
       </c>
@@ -10673,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10">
       <c r="A265" t="s">
         <v>275</v>
       </c>
@@ -10705,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>276</v>
       </c>
@@ -10737,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>277</v>
       </c>
@@ -10769,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>278</v>
       </c>
@@ -10801,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>279</v>
       </c>
@@ -10833,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>280</v>
       </c>
@@ -10865,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>281</v>
       </c>
@@ -10897,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>282</v>
       </c>
@@ -10929,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10">
       <c r="A273" t="s">
         <v>283</v>
       </c>
@@ -10961,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10">
       <c r="A274" t="s">
         <v>284</v>
       </c>
@@ -10993,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10">
       <c r="A275" t="s">
         <v>285</v>
       </c>
@@ -11025,7 +11343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10">
       <c r="A276" t="s">
         <v>286</v>
       </c>
@@ -11057,7 +11375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10">
       <c r="A277" t="s">
         <v>287</v>
       </c>
@@ -11089,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10">
       <c r="A278" t="s">
         <v>288</v>
       </c>
@@ -11121,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>289</v>
       </c>
@@ -11153,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10">
       <c r="A280" t="s">
         <v>290</v>
       </c>
@@ -11185,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10">
       <c r="A281" t="s">
         <v>291</v>
       </c>
@@ -11217,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10">
       <c r="A282" t="s">
         <v>292</v>
       </c>
@@ -11249,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -11281,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10">
       <c r="A284" t="s">
         <v>294</v>
       </c>
@@ -11313,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10">
       <c r="A285" t="s">
         <v>295</v>
       </c>
@@ -11345,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10">
       <c r="A286" t="s">
         <v>143</v>
       </c>
@@ -11377,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10">
       <c r="A287" t="s">
         <v>296</v>
       </c>
@@ -11409,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10">
       <c r="A288" t="s">
         <v>144</v>
       </c>
@@ -11441,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="A289" t="s">
         <v>297</v>
       </c>
@@ -11473,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="A290" t="s">
         <v>145</v>
       </c>
@@ -11505,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="A291" t="s">
         <v>298</v>
       </c>
@@ -11537,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10">
       <c r="A292" t="s">
         <v>299</v>
       </c>
@@ -11569,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10">
       <c r="A293" t="s">
         <v>300</v>
       </c>
@@ -11601,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10">
       <c r="A294" t="s">
         <v>146</v>
       </c>
@@ -11633,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -11665,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -11697,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -11729,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -11761,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -11793,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -11825,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -11857,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -11889,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -11921,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -11953,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10">
       <c r="A305" t="s">
         <v>149</v>
       </c>
@@ -11985,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="A306" t="s">
         <v>150</v>
       </c>
@@ -12017,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="A307" t="s">
         <v>151</v>
       </c>
@@ -12049,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="A308" t="s">
         <v>152</v>
       </c>
@@ -12081,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="A309" t="s">
         <v>153</v>
       </c>
@@ -12113,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" t="s">
         <v>159</v>
       </c>
@@ -12145,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -12177,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -12209,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -12241,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="A314" t="s">
         <v>181</v>
       </c>
@@ -12273,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -12305,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="A316" t="s">
         <v>185</v>
       </c>
@@ -12337,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -12369,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -12401,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -12433,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -12465,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -12497,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -12529,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -12561,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -12593,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -12625,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -12657,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -12689,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -12721,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10">
       <c r="A329" t="s">
         <v>327</v>
       </c>
@@ -12753,7 +13071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -12785,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -12817,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -12849,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -12881,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -12913,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -12945,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -12977,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -13009,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -13041,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -13073,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -13105,7 +13423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -13137,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -13169,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -13201,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -13233,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -13265,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -13297,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -13329,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -13361,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -13393,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -13425,7 +13743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -13457,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -13489,7 +13807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -13521,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -13553,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -13585,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10">
       <c r="A356" t="s">
         <v>354</v>
       </c>
@@ -13617,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -13649,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -13681,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -13713,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -13745,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -13777,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -13809,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -13841,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -13873,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -13905,7 +14223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -13937,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10">
       <c r="A367" t="s">
         <v>365</v>
       </c>
@@ -13969,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10">
       <c r="A368" t="s">
         <v>366</v>
       </c>
@@ -14001,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10">
       <c r="A369" t="s">
         <v>367</v>
       </c>
@@ -14033,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -14065,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -14097,7 +14415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10">
       <c r="A372" t="s">
         <v>370</v>
       </c>
@@ -14129,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -14161,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10">
       <c r="A374" t="s">
         <v>372</v>
       </c>
@@ -14193,7 +14511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -14225,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10">
       <c r="A376" t="s">
         <v>374</v>
       </c>
@@ -14257,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -14289,7 +14607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10">
       <c r="A378" t="s">
         <v>376</v>
       </c>
@@ -14321,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10">
       <c r="A379" t="s">
         <v>377</v>
       </c>
@@ -14353,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -14385,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10">
       <c r="A381" t="s">
         <v>379</v>
       </c>
@@ -14417,7 +14735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10">
       <c r="A382" t="s">
         <v>380</v>
       </c>
@@ -14449,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10">
       <c r="A383" t="s">
         <v>381</v>
       </c>
@@ -14481,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -14513,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -14545,7 +14863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10">
       <c r="A386" t="s">
         <v>384</v>
       </c>
@@ -14577,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -14609,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -14641,7 +14959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -14673,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -14705,7 +15023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -14737,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -14769,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -14801,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -14833,7 +15151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -14865,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -14897,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -14929,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -14961,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -14993,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -15025,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -15057,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -15089,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -15121,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -15153,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10">
       <c r="A405" t="s">
         <v>403</v>
       </c>
@@ -15185,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -15217,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -15249,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -15281,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -15313,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -15345,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -15377,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -15409,7 +15727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -15441,7 +15759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -15473,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -15505,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -15537,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -15569,7 +15887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -15601,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -15633,7 +15951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -15665,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -15697,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -15729,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -15761,7 +16079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -15793,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -15825,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -15857,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -15889,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -15921,7 +16239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -15953,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -15985,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -16017,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -16049,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -16081,7 +16399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10">
       <c r="A434" t="s">
         <v>432</v>
       </c>
@@ -16113,7 +16431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10">
       <c r="A435" t="s">
         <v>433</v>
       </c>
@@ -16145,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10">
       <c r="A436" t="s">
         <v>434</v>
       </c>
@@ -16177,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10">
       <c r="A437" t="s">
         <v>435</v>
       </c>
@@ -16209,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -16241,7 +16559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10">
       <c r="A439" t="s">
         <v>437</v>
       </c>
@@ -16273,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10">
       <c r="A440" t="s">
         <v>438</v>
       </c>
@@ -16305,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10">
       <c r="A441" t="s">
         <v>439</v>
       </c>
@@ -16337,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10">
       <c r="A442" t="s">
         <v>440</v>
       </c>
@@ -16369,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -16401,7 +16719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10">
       <c r="A444" t="s">
         <v>442</v>
       </c>
@@ -16433,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10">
       <c r="A445" t="s">
         <v>443</v>
       </c>
@@ -16465,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10">
       <c r="A446" t="s">
         <v>444</v>
       </c>
@@ -16497,7 +16815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -16529,7 +16847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10">
       <c r="A448" t="s">
         <v>446</v>
       </c>
@@ -16561,7 +16879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10">
       <c r="A449" t="s">
         <v>447</v>
       </c>
@@ -16593,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10">
       <c r="A450" t="s">
         <v>448</v>
       </c>
@@ -16625,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10">
       <c r="A451" t="s">
         <v>449</v>
       </c>
@@ -16657,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10">
       <c r="A452" t="s">
         <v>450</v>
       </c>
@@ -16689,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10">
       <c r="A453" t="s">
         <v>451</v>
       </c>
@@ -16721,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10">
       <c r="A454" t="s">
         <v>452</v>
       </c>
@@ -16753,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10">
       <c r="A455" t="s">
         <v>453</v>
       </c>
@@ -16785,7 +17103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10">
       <c r="A456" t="s">
         <v>454</v>
       </c>
@@ -16817,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10">
       <c r="A457" t="s">
         <v>455</v>
       </c>
@@ -16849,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10">
       <c r="A458" t="s">
         <v>456</v>
       </c>
@@ -16881,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10">
       <c r="A459" t="s">
         <v>457</v>
       </c>
@@ -16913,7 +17231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10">
       <c r="A460" t="s">
         <v>458</v>
       </c>
@@ -16945,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10">
       <c r="A461" t="s">
         <v>459</v>
       </c>
@@ -16977,7 +17295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10">
       <c r="A462" t="s">
         <v>460</v>
       </c>
@@ -17009,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10">
       <c r="A463" t="s">
         <v>461</v>
       </c>
@@ -17041,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10">
       <c r="A464" t="s">
         <v>462</v>
       </c>
@@ -17073,7 +17391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10">
       <c r="A465" t="s">
         <v>463</v>
       </c>
@@ -17105,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10">
       <c r="A466" t="s">
         <v>464</v>
       </c>
@@ -17137,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10">
       <c r="A467" t="s">
         <v>159</v>
       </c>
@@ -17169,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10">
       <c r="A468" t="s">
         <v>465</v>
       </c>
@@ -17201,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10">
       <c r="A469" t="s">
         <v>466</v>
       </c>
@@ -17233,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10">
       <c r="A470" t="s">
         <v>467</v>
       </c>
@@ -17265,7 +17583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10">
       <c r="A471" t="s">
         <v>468</v>
       </c>
@@ -17297,7 +17615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10">
       <c r="A472" t="s">
         <v>469</v>
       </c>
@@ -17329,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10">
       <c r="A473" t="s">
         <v>470</v>
       </c>
@@ -17361,7 +17679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10">
       <c r="A474" t="s">
         <v>471</v>
       </c>
@@ -17393,7 +17711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10">
       <c r="A475" t="s">
         <v>472</v>
       </c>
@@ -17425,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10">
       <c r="A476" t="s">
         <v>198</v>
       </c>
@@ -17457,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10">
       <c r="A477" t="s">
         <v>473</v>
       </c>
@@ -17489,7 +17807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10">
       <c r="A478" t="s">
         <v>474</v>
       </c>
@@ -17521,7 +17839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10">
       <c r="A479" t="s">
         <v>475</v>
       </c>
@@ -17553,7 +17871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10">
       <c r="A480" t="s">
         <v>476</v>
       </c>
@@ -17585,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10">
       <c r="A481" t="s">
         <v>477</v>
       </c>
@@ -17617,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10">
       <c r="A482" t="s">
         <v>478</v>
       </c>
@@ -17649,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10">
       <c r="A483" t="s">
         <v>479</v>
       </c>
@@ -17681,7 +17999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10">
       <c r="A484" t="s">
         <v>480</v>
       </c>
@@ -17713,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10">
       <c r="A485" t="s">
         <v>481</v>
       </c>
@@ -17745,7 +18063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10">
       <c r="A486" t="s">
         <v>361</v>
       </c>
@@ -17777,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10">
       <c r="A487" t="s">
         <v>482</v>
       </c>
@@ -17809,7 +18127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10">
       <c r="A488" t="s">
         <v>483</v>
       </c>
@@ -17841,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10">
       <c r="A489" t="s">
         <v>484</v>
       </c>
@@ -17873,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10">
       <c r="A490" t="s">
         <v>485</v>
       </c>
@@ -17905,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10">
       <c r="A491" t="s">
         <v>486</v>
       </c>
@@ -17937,7 +18255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10">
       <c r="A492" t="s">
         <v>487</v>
       </c>
@@ -17969,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10">
       <c r="A493" t="s">
         <v>488</v>
       </c>
@@ -18001,7 +18319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10">
       <c r="A494" t="s">
         <v>489</v>
       </c>
@@ -18033,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10">
       <c r="A495" t="s">
         <v>490</v>
       </c>
@@ -18065,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10">
       <c r="A496" t="s">
         <v>491</v>
       </c>
@@ -18097,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10">
       <c r="A497" t="s">
         <v>492</v>
       </c>
@@ -18129,7 +18447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10">
       <c r="A498" t="s">
         <v>493</v>
       </c>
@@ -18161,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10">
       <c r="A499" t="s">
         <v>494</v>
       </c>
@@ -18193,7 +18511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10">
       <c r="A500" t="s">
         <v>495</v>
       </c>
@@ -18225,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10">
       <c r="A501" t="s">
         <v>496</v>
       </c>
@@ -18257,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10">
       <c r="A502" t="s">
         <v>497</v>
       </c>
@@ -18289,7 +18607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10">
       <c r="A503" t="s">
         <v>498</v>
       </c>
@@ -18321,7 +18639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10">
       <c r="A504" t="s">
         <v>499</v>
       </c>
@@ -18353,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10">
       <c r="A505" t="s">
         <v>500</v>
       </c>
@@ -18385,7 +18703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10">
       <c r="A506" t="s">
         <v>501</v>
       </c>
@@ -18417,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10">
       <c r="A507" t="s">
         <v>502</v>
       </c>
@@ -18449,7 +18767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10">
       <c r="A508" t="s">
         <v>503</v>
       </c>
@@ -18481,7 +18799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10">
       <c r="A509" t="s">
         <v>504</v>
       </c>
@@ -18513,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10">
       <c r="A510" t="s">
         <v>505</v>
       </c>
@@ -18545,7 +18863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10">
       <c r="A511" t="s">
         <v>506</v>
       </c>
@@ -18577,7 +18895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10">
       <c r="A512" t="s">
         <v>507</v>
       </c>
@@ -18609,7 +18927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10">
       <c r="A513" t="s">
         <v>508</v>
       </c>
@@ -18641,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10">
       <c r="A514" t="s">
         <v>509</v>
       </c>
@@ -18673,7 +18991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10">
       <c r="A515" t="s">
         <v>510</v>
       </c>
@@ -18705,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10">
       <c r="A516" t="s">
         <v>511</v>
       </c>
@@ -18737,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10">
       <c r="A517" t="s">
         <v>512</v>
       </c>
@@ -18769,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10">
       <c r="A518" t="s">
         <v>513</v>
       </c>
@@ -18801,7 +19119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10">
       <c r="A519" t="s">
         <v>514</v>
       </c>
@@ -18833,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10">
       <c r="A520" t="s">
         <v>515</v>
       </c>
@@ -18865,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10">
       <c r="A521" t="s">
         <v>516</v>
       </c>
@@ -18897,7 +19215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10">
       <c r="A522" t="s">
         <v>517</v>
       </c>
@@ -18929,7 +19247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10">
       <c r="A523" t="s">
         <v>518</v>
       </c>
@@ -18961,7 +19279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10">
       <c r="A524" t="s">
         <v>519</v>
       </c>
@@ -18993,7 +19311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10">
       <c r="A525" t="s">
         <v>520</v>
       </c>
@@ -19025,7 +19343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10">
       <c r="A526" t="s">
         <v>521</v>
       </c>
@@ -19057,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10">
       <c r="A527" t="s">
         <v>522</v>
       </c>
@@ -19089,7 +19407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10">
       <c r="A528" t="s">
         <v>523</v>
       </c>
@@ -19121,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10">
       <c r="A529" t="s">
         <v>524</v>
       </c>
@@ -19153,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10">
       <c r="A530" t="s">
         <v>525</v>
       </c>
@@ -19185,7 +19503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10">
       <c r="A531" t="s">
         <v>526</v>
       </c>
@@ -19217,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10">
       <c r="A532" t="s">
         <v>527</v>
       </c>
@@ -19249,7 +19567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10">
       <c r="A533" t="s">
         <v>528</v>
       </c>
@@ -19281,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10">
       <c r="A534" t="s">
         <v>529</v>
       </c>
@@ -19313,7 +19631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10">
       <c r="A535" t="s">
         <v>530</v>
       </c>
@@ -19345,7 +19663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10">
       <c r="A536" t="s">
         <v>531</v>
       </c>
@@ -19377,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10">
       <c r="A537" t="s">
         <v>532</v>
       </c>
@@ -19409,7 +19727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10">
       <c r="A538" t="s">
         <v>533</v>
       </c>
@@ -19441,7 +19759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10">
       <c r="A539" t="s">
         <v>534</v>
       </c>
@@ -19473,7 +19791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10">
       <c r="A540" t="s">
         <v>535</v>
       </c>
@@ -19505,7 +19823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10">
       <c r="A541" t="s">
         <v>536</v>
       </c>
@@ -19537,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10">
       <c r="A542" t="s">
         <v>537</v>
       </c>
@@ -19569,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10">
       <c r="A543" t="s">
         <v>538</v>
       </c>
@@ -19601,7 +19919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10">
       <c r="A544" t="s">
         <v>539</v>
       </c>
@@ -19633,7 +19951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10">
       <c r="A545" t="s">
         <v>540</v>
       </c>
@@ -19665,7 +19983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10">
       <c r="A546" t="s">
         <v>541</v>
       </c>
@@ -19697,7 +20015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10">
       <c r="A547" t="s">
         <v>542</v>
       </c>
@@ -19729,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10">
       <c r="A548" t="s">
         <v>543</v>
       </c>
@@ -19761,7 +20079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10">
       <c r="A549" t="s">
         <v>159</v>
       </c>
@@ -19793,7 +20111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10">
       <c r="A550" t="s">
         <v>544</v>
       </c>
@@ -19825,7 +20143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10">
       <c r="A551" t="s">
         <v>545</v>
       </c>
@@ -19857,7 +20175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10">
       <c r="A552" t="s">
         <v>546</v>
       </c>
@@ -19889,7 +20207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10">
       <c r="A553" t="s">
         <v>547</v>
       </c>
@@ -19921,7 +20239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10">
       <c r="A554" t="s">
         <v>548</v>
       </c>
@@ -19953,7 +20271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10">
       <c r="A555" t="s">
         <v>549</v>
       </c>
@@ -19985,7 +20303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10">
       <c r="A556" t="s">
         <v>550</v>
       </c>
@@ -20017,7 +20335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10">
       <c r="A557" t="s">
         <v>551</v>
       </c>
@@ -20049,7 +20367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10">
       <c r="A558" t="s">
         <v>552</v>
       </c>
@@ -20081,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10">
       <c r="A559" t="s">
         <v>553</v>
       </c>
@@ -20113,7 +20431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10">
       <c r="A560" t="s">
         <v>554</v>
       </c>
@@ -20145,7 +20463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10">
       <c r="A561" t="s">
         <v>555</v>
       </c>
@@ -20177,7 +20495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10">
       <c r="A562" t="s">
         <v>556</v>
       </c>
@@ -20209,7 +20527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10">
       <c r="A563" t="s">
         <v>557</v>
       </c>
@@ -20241,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10">
       <c r="A564" t="s">
         <v>558</v>
       </c>
@@ -20273,7 +20591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10">
       <c r="A565" t="s">
         <v>559</v>
       </c>
@@ -20305,7 +20623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10">
       <c r="A566" t="s">
         <v>560</v>
       </c>
@@ -20337,7 +20655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10">
       <c r="A567" t="s">
         <v>561</v>
       </c>
@@ -20369,7 +20687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10">
       <c r="A568" t="s">
         <v>562</v>
       </c>
@@ -20401,7 +20719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10">
       <c r="A569" t="s">
         <v>563</v>
       </c>
@@ -20433,7 +20751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10">
       <c r="A570" t="s">
         <v>564</v>
       </c>
@@ -20465,7 +20783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10">
       <c r="A571" t="s">
         <v>473</v>
       </c>
@@ -20497,7 +20815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10">
       <c r="A572" t="s">
         <v>565</v>
       </c>
@@ -20529,7 +20847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10">
       <c r="A573" t="s">
         <v>566</v>
       </c>
@@ -20561,7 +20879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10">
       <c r="A574" t="s">
         <v>567</v>
       </c>
@@ -20593,7 +20911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10">
       <c r="A575" t="s">
         <v>568</v>
       </c>
@@ -20625,7 +20943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10">
       <c r="A576" t="s">
         <v>569</v>
       </c>
@@ -20657,7 +20975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10">
       <c r="A577" t="s">
         <v>570</v>
       </c>
@@ -20689,7 +21007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10">
       <c r="A578" t="s">
         <v>571</v>
       </c>
@@ -20721,7 +21039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10">
       <c r="A579" t="s">
         <v>572</v>
       </c>
@@ -20753,7 +21071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10">
       <c r="A580" t="s">
         <v>573</v>
       </c>
@@ -20785,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10">
       <c r="A581" t="s">
         <v>574</v>
       </c>
@@ -20817,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10">
       <c r="A582" t="s">
         <v>575</v>
       </c>
@@ -20849,7 +21167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10">
       <c r="A583" t="s">
         <v>576</v>
       </c>
@@ -20881,7 +21199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10">
       <c r="A584" t="s">
         <v>577</v>
       </c>
@@ -20913,7 +21231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10">
       <c r="A585" t="s">
         <v>578</v>
       </c>
@@ -20945,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10">
       <c r="A586" t="s">
         <v>579</v>
       </c>
@@ -20977,7 +21295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10">
       <c r="A587" t="s">
         <v>580</v>
       </c>
@@ -21009,7 +21327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10">
       <c r="A588" t="s">
         <v>581</v>
       </c>
@@ -21041,7 +21359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10">
       <c r="A589" t="s">
         <v>582</v>
       </c>
@@ -21073,7 +21391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10">
       <c r="A590" t="s">
         <v>583</v>
       </c>
@@ -21105,7 +21423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10">
       <c r="A591" t="s">
         <v>584</v>
       </c>
@@ -21137,7 +21455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10">
       <c r="A592" t="s">
         <v>585</v>
       </c>
@@ -21169,7 +21487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10">
       <c r="A593" t="s">
         <v>586</v>
       </c>
@@ -21201,7 +21519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10">
       <c r="A594" t="s">
         <v>587</v>
       </c>
@@ -21233,7 +21551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10">
       <c r="A595" t="s">
         <v>588</v>
       </c>
@@ -21265,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10">
       <c r="A596" t="s">
         <v>589</v>
       </c>
@@ -21297,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10">
       <c r="A597" t="s">
         <v>590</v>
       </c>
@@ -21329,7 +21647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10">
       <c r="A598" t="s">
         <v>591</v>
       </c>
@@ -21361,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10">
       <c r="A599" t="s">
         <v>592</v>
       </c>
@@ -21393,7 +21711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10">
       <c r="A600" t="s">
         <v>593</v>
       </c>
@@ -21425,7 +21743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10">
       <c r="A601" t="s">
         <v>594</v>
       </c>
@@ -21454,6 +21772,3462 @@
         <v>0</v>
       </c>
       <c r="J601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10">
+      <c r="A602" t="s">
+        <v>595</v>
+      </c>
+      <c r="B602">
+        <v>0</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+      <c r="D602">
+        <v>0</v>
+      </c>
+      <c r="E602">
+        <v>0</v>
+      </c>
+      <c r="F602">
+        <v>1</v>
+      </c>
+      <c r="G602">
+        <v>0</v>
+      </c>
+      <c r="H602">
+        <v>0</v>
+      </c>
+      <c r="I602">
+        <v>0</v>
+      </c>
+      <c r="J602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10">
+      <c r="A603" t="s">
+        <v>596</v>
+      </c>
+      <c r="B603">
+        <v>0</v>
+      </c>
+      <c r="C603">
+        <v>0</v>
+      </c>
+      <c r="D603">
+        <v>0</v>
+      </c>
+      <c r="E603">
+        <v>0</v>
+      </c>
+      <c r="F603">
+        <v>1</v>
+      </c>
+      <c r="G603">
+        <v>0</v>
+      </c>
+      <c r="H603">
+        <v>0</v>
+      </c>
+      <c r="I603">
+        <v>0</v>
+      </c>
+      <c r="J603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10">
+      <c r="A604" t="s">
+        <v>597</v>
+      </c>
+      <c r="B604">
+        <v>0</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+      <c r="D604">
+        <v>0</v>
+      </c>
+      <c r="E604">
+        <v>0</v>
+      </c>
+      <c r="F604">
+        <v>1</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604">
+        <v>0</v>
+      </c>
+      <c r="I604">
+        <v>0</v>
+      </c>
+      <c r="J604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10">
+      <c r="A605" t="s">
+        <v>598</v>
+      </c>
+      <c r="B605">
+        <v>0</v>
+      </c>
+      <c r="C605">
+        <v>0</v>
+      </c>
+      <c r="D605">
+        <v>0</v>
+      </c>
+      <c r="E605">
+        <v>0</v>
+      </c>
+      <c r="F605">
+        <v>1</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+      <c r="I605">
+        <v>0</v>
+      </c>
+      <c r="J605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10">
+      <c r="A606" t="s">
+        <v>599</v>
+      </c>
+      <c r="B606">
+        <v>0</v>
+      </c>
+      <c r="C606">
+        <v>0</v>
+      </c>
+      <c r="D606">
+        <v>0</v>
+      </c>
+      <c r="E606">
+        <v>0</v>
+      </c>
+      <c r="F606">
+        <v>1</v>
+      </c>
+      <c r="G606">
+        <v>0</v>
+      </c>
+      <c r="H606">
+        <v>0</v>
+      </c>
+      <c r="I606">
+        <v>0</v>
+      </c>
+      <c r="J606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10">
+      <c r="A607" t="s">
+        <v>600</v>
+      </c>
+      <c r="B607">
+        <v>0</v>
+      </c>
+      <c r="C607">
+        <v>0</v>
+      </c>
+      <c r="D607">
+        <v>0</v>
+      </c>
+      <c r="E607">
+        <v>0</v>
+      </c>
+      <c r="F607">
+        <v>1</v>
+      </c>
+      <c r="G607">
+        <v>0</v>
+      </c>
+      <c r="H607">
+        <v>0</v>
+      </c>
+      <c r="I607">
+        <v>0</v>
+      </c>
+      <c r="J607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10">
+      <c r="A608" t="s">
+        <v>601</v>
+      </c>
+      <c r="B608">
+        <v>0</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+      <c r="D608">
+        <v>0</v>
+      </c>
+      <c r="E608">
+        <v>0</v>
+      </c>
+      <c r="F608">
+        <v>1</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608">
+        <v>0</v>
+      </c>
+      <c r="I608">
+        <v>0</v>
+      </c>
+      <c r="J608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10">
+      <c r="A609" t="s">
+        <v>602</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+      <c r="D609">
+        <v>0</v>
+      </c>
+      <c r="E609">
+        <v>0</v>
+      </c>
+      <c r="F609">
+        <v>1</v>
+      </c>
+      <c r="G609">
+        <v>0</v>
+      </c>
+      <c r="H609">
+        <v>0</v>
+      </c>
+      <c r="I609">
+        <v>0</v>
+      </c>
+      <c r="J609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10">
+      <c r="A610" t="s">
+        <v>603</v>
+      </c>
+      <c r="B610">
+        <v>0</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+      <c r="D610">
+        <v>0</v>
+      </c>
+      <c r="E610">
+        <v>0</v>
+      </c>
+      <c r="F610">
+        <v>1</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610">
+        <v>0</v>
+      </c>
+      <c r="I610">
+        <v>0</v>
+      </c>
+      <c r="J610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10">
+      <c r="A611" t="s">
+        <v>604</v>
+      </c>
+      <c r="B611">
+        <v>0</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="F611">
+        <v>1</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611">
+        <v>0</v>
+      </c>
+      <c r="I611">
+        <v>0</v>
+      </c>
+      <c r="J611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10">
+      <c r="A612" t="s">
+        <v>605</v>
+      </c>
+      <c r="B612">
+        <v>0</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>0</v>
+      </c>
+      <c r="E612">
+        <v>0</v>
+      </c>
+      <c r="F612">
+        <v>1</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612">
+        <v>0</v>
+      </c>
+      <c r="I612">
+        <v>0</v>
+      </c>
+      <c r="J612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10">
+      <c r="A613" t="s">
+        <v>606</v>
+      </c>
+      <c r="B613">
+        <v>0</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+      <c r="D613">
+        <v>0</v>
+      </c>
+      <c r="E613">
+        <v>0</v>
+      </c>
+      <c r="F613">
+        <v>1</v>
+      </c>
+      <c r="G613">
+        <v>0</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+      <c r="I613">
+        <v>0</v>
+      </c>
+      <c r="J613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10">
+      <c r="A614" t="s">
+        <v>607</v>
+      </c>
+      <c r="B614">
+        <v>0</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+      <c r="D614">
+        <v>0</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+      <c r="F614">
+        <v>1</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614">
+        <v>0</v>
+      </c>
+      <c r="I614">
+        <v>0</v>
+      </c>
+      <c r="J614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10">
+      <c r="A615" t="s">
+        <v>608</v>
+      </c>
+      <c r="B615">
+        <v>0</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+      <c r="D615">
+        <v>0</v>
+      </c>
+      <c r="E615">
+        <v>0</v>
+      </c>
+      <c r="F615">
+        <v>1</v>
+      </c>
+      <c r="G615">
+        <v>0</v>
+      </c>
+      <c r="H615">
+        <v>0</v>
+      </c>
+      <c r="I615">
+        <v>0</v>
+      </c>
+      <c r="J615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10">
+      <c r="A616" t="s">
+        <v>609</v>
+      </c>
+      <c r="B616">
+        <v>0</v>
+      </c>
+      <c r="C616">
+        <v>0</v>
+      </c>
+      <c r="D616">
+        <v>0</v>
+      </c>
+      <c r="E616">
+        <v>0</v>
+      </c>
+      <c r="F616">
+        <v>1</v>
+      </c>
+      <c r="G616">
+        <v>0</v>
+      </c>
+      <c r="H616">
+        <v>0</v>
+      </c>
+      <c r="I616">
+        <v>0</v>
+      </c>
+      <c r="J616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10">
+      <c r="A617" t="s">
+        <v>610</v>
+      </c>
+      <c r="B617">
+        <v>0</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+      <c r="D617">
+        <v>0</v>
+      </c>
+      <c r="E617">
+        <v>0</v>
+      </c>
+      <c r="F617">
+        <v>1</v>
+      </c>
+      <c r="G617">
+        <v>0</v>
+      </c>
+      <c r="H617">
+        <v>0</v>
+      </c>
+      <c r="I617">
+        <v>0</v>
+      </c>
+      <c r="J617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10">
+      <c r="A618" t="s">
+        <v>611</v>
+      </c>
+      <c r="B618">
+        <v>0</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+      <c r="D618">
+        <v>0</v>
+      </c>
+      <c r="E618">
+        <v>0</v>
+      </c>
+      <c r="F618">
+        <v>1</v>
+      </c>
+      <c r="G618">
+        <v>0</v>
+      </c>
+      <c r="H618">
+        <v>0</v>
+      </c>
+      <c r="I618">
+        <v>0</v>
+      </c>
+      <c r="J618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10">
+      <c r="A619" t="s">
+        <v>612</v>
+      </c>
+      <c r="B619">
+        <v>0</v>
+      </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
+      <c r="D619">
+        <v>0</v>
+      </c>
+      <c r="E619">
+        <v>0</v>
+      </c>
+      <c r="F619">
+        <v>1</v>
+      </c>
+      <c r="G619">
+        <v>0</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+      <c r="I619">
+        <v>0</v>
+      </c>
+      <c r="J619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10">
+      <c r="A620" t="s">
+        <v>613</v>
+      </c>
+      <c r="B620">
+        <v>0</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+      <c r="D620">
+        <v>0</v>
+      </c>
+      <c r="E620">
+        <v>0</v>
+      </c>
+      <c r="F620">
+        <v>1</v>
+      </c>
+      <c r="G620">
+        <v>0</v>
+      </c>
+      <c r="H620">
+        <v>0</v>
+      </c>
+      <c r="I620">
+        <v>0</v>
+      </c>
+      <c r="J620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10">
+      <c r="A621" t="s">
+        <v>614</v>
+      </c>
+      <c r="B621">
+        <v>0</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+      <c r="D621">
+        <v>0</v>
+      </c>
+      <c r="E621">
+        <v>0</v>
+      </c>
+      <c r="F621">
+        <v>1</v>
+      </c>
+      <c r="G621">
+        <v>0</v>
+      </c>
+      <c r="H621">
+        <v>0</v>
+      </c>
+      <c r="I621">
+        <v>0</v>
+      </c>
+      <c r="J621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10">
+      <c r="A622" t="s">
+        <v>615</v>
+      </c>
+      <c r="B622">
+        <v>0</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+      <c r="D622">
+        <v>0</v>
+      </c>
+      <c r="E622">
+        <v>0</v>
+      </c>
+      <c r="F622">
+        <v>1</v>
+      </c>
+      <c r="G622">
+        <v>0</v>
+      </c>
+      <c r="H622">
+        <v>0</v>
+      </c>
+      <c r="I622">
+        <v>0</v>
+      </c>
+      <c r="J622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10">
+      <c r="A623" t="s">
+        <v>616</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+      <c r="D623">
+        <v>0</v>
+      </c>
+      <c r="E623">
+        <v>0</v>
+      </c>
+      <c r="F623">
+        <v>1</v>
+      </c>
+      <c r="G623">
+        <v>0</v>
+      </c>
+      <c r="H623">
+        <v>0</v>
+      </c>
+      <c r="I623">
+        <v>0</v>
+      </c>
+      <c r="J623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10">
+      <c r="A624" t="s">
+        <v>617</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+      <c r="D624">
+        <v>0</v>
+      </c>
+      <c r="E624">
+        <v>0</v>
+      </c>
+      <c r="F624">
+        <v>1</v>
+      </c>
+      <c r="G624">
+        <v>0</v>
+      </c>
+      <c r="H624">
+        <v>0</v>
+      </c>
+      <c r="I624">
+        <v>0</v>
+      </c>
+      <c r="J624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10">
+      <c r="A625" t="s">
+        <v>618</v>
+      </c>
+      <c r="B625">
+        <v>0</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+      <c r="D625">
+        <v>0</v>
+      </c>
+      <c r="E625">
+        <v>0</v>
+      </c>
+      <c r="F625">
+        <v>1</v>
+      </c>
+      <c r="G625">
+        <v>0</v>
+      </c>
+      <c r="H625">
+        <v>0</v>
+      </c>
+      <c r="I625">
+        <v>0</v>
+      </c>
+      <c r="J625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10">
+      <c r="A626" t="s">
+        <v>619</v>
+      </c>
+      <c r="B626">
+        <v>0</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+      <c r="D626">
+        <v>0</v>
+      </c>
+      <c r="E626">
+        <v>0</v>
+      </c>
+      <c r="F626">
+        <v>1</v>
+      </c>
+      <c r="G626">
+        <v>0</v>
+      </c>
+      <c r="H626">
+        <v>0</v>
+      </c>
+      <c r="I626">
+        <v>0</v>
+      </c>
+      <c r="J626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10">
+      <c r="A627" t="s">
+        <v>620</v>
+      </c>
+      <c r="B627">
+        <v>0</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+      <c r="D627">
+        <v>0</v>
+      </c>
+      <c r="E627">
+        <v>0</v>
+      </c>
+      <c r="F627">
+        <v>1</v>
+      </c>
+      <c r="G627">
+        <v>0</v>
+      </c>
+      <c r="H627">
+        <v>0</v>
+      </c>
+      <c r="I627">
+        <v>0</v>
+      </c>
+      <c r="J627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10">
+      <c r="A628" t="s">
+        <v>621</v>
+      </c>
+      <c r="B628">
+        <v>0</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628">
+        <v>0</v>
+      </c>
+      <c r="E628">
+        <v>0</v>
+      </c>
+      <c r="F628">
+        <v>1</v>
+      </c>
+      <c r="G628">
+        <v>0</v>
+      </c>
+      <c r="H628">
+        <v>0</v>
+      </c>
+      <c r="I628">
+        <v>0</v>
+      </c>
+      <c r="J628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10">
+      <c r="A629" t="s">
+        <v>622</v>
+      </c>
+      <c r="B629">
+        <v>0</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+      <c r="D629">
+        <v>0</v>
+      </c>
+      <c r="E629">
+        <v>0</v>
+      </c>
+      <c r="F629">
+        <v>1</v>
+      </c>
+      <c r="G629">
+        <v>0</v>
+      </c>
+      <c r="H629">
+        <v>0</v>
+      </c>
+      <c r="I629">
+        <v>0</v>
+      </c>
+      <c r="J629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10">
+      <c r="A630" t="s">
+        <v>623</v>
+      </c>
+      <c r="B630">
+        <v>0</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+      <c r="D630">
+        <v>0</v>
+      </c>
+      <c r="E630">
+        <v>0</v>
+      </c>
+      <c r="F630">
+        <v>1</v>
+      </c>
+      <c r="G630">
+        <v>0</v>
+      </c>
+      <c r="H630">
+        <v>0</v>
+      </c>
+      <c r="I630">
+        <v>0</v>
+      </c>
+      <c r="J630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10">
+      <c r="A631" t="s">
+        <v>624</v>
+      </c>
+      <c r="B631">
+        <v>0</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+      <c r="D631">
+        <v>0</v>
+      </c>
+      <c r="E631">
+        <v>0</v>
+      </c>
+      <c r="F631">
+        <v>1</v>
+      </c>
+      <c r="G631">
+        <v>0</v>
+      </c>
+      <c r="H631">
+        <v>0</v>
+      </c>
+      <c r="I631">
+        <v>0</v>
+      </c>
+      <c r="J631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10">
+      <c r="A632" t="s">
+        <v>625</v>
+      </c>
+      <c r="B632">
+        <v>0</v>
+      </c>
+      <c r="C632">
+        <v>0</v>
+      </c>
+      <c r="D632">
+        <v>0</v>
+      </c>
+      <c r="E632">
+        <v>0</v>
+      </c>
+      <c r="F632">
+        <v>1</v>
+      </c>
+      <c r="G632">
+        <v>0</v>
+      </c>
+      <c r="H632">
+        <v>0</v>
+      </c>
+      <c r="I632">
+        <v>0</v>
+      </c>
+      <c r="J632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10">
+      <c r="A633" t="s">
+        <v>626</v>
+      </c>
+      <c r="B633">
+        <v>0</v>
+      </c>
+      <c r="C633">
+        <v>0</v>
+      </c>
+      <c r="D633">
+        <v>0</v>
+      </c>
+      <c r="E633">
+        <v>0</v>
+      </c>
+      <c r="F633">
+        <v>1</v>
+      </c>
+      <c r="G633">
+        <v>0</v>
+      </c>
+      <c r="H633">
+        <v>0</v>
+      </c>
+      <c r="I633">
+        <v>0</v>
+      </c>
+      <c r="J633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10">
+      <c r="A634" t="s">
+        <v>627</v>
+      </c>
+      <c r="B634">
+        <v>0</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+      <c r="D634">
+        <v>0</v>
+      </c>
+      <c r="E634">
+        <v>0</v>
+      </c>
+      <c r="F634">
+        <v>1</v>
+      </c>
+      <c r="G634">
+        <v>0</v>
+      </c>
+      <c r="H634">
+        <v>0</v>
+      </c>
+      <c r="I634">
+        <v>0</v>
+      </c>
+      <c r="J634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10">
+      <c r="A635" t="s">
+        <v>628</v>
+      </c>
+      <c r="B635">
+        <v>0</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+      <c r="D635">
+        <v>0</v>
+      </c>
+      <c r="E635">
+        <v>0</v>
+      </c>
+      <c r="F635">
+        <v>1</v>
+      </c>
+      <c r="G635">
+        <v>0</v>
+      </c>
+      <c r="H635">
+        <v>0</v>
+      </c>
+      <c r="I635">
+        <v>0</v>
+      </c>
+      <c r="J635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10">
+      <c r="A636" t="s">
+        <v>629</v>
+      </c>
+      <c r="B636">
+        <v>0</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+      <c r="D636">
+        <v>0</v>
+      </c>
+      <c r="E636">
+        <v>0</v>
+      </c>
+      <c r="F636">
+        <v>1</v>
+      </c>
+      <c r="G636">
+        <v>0</v>
+      </c>
+      <c r="H636">
+        <v>0</v>
+      </c>
+      <c r="I636">
+        <v>0</v>
+      </c>
+      <c r="J636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10">
+      <c r="A637" t="s">
+        <v>630</v>
+      </c>
+      <c r="B637">
+        <v>0</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+      <c r="D637">
+        <v>0</v>
+      </c>
+      <c r="E637">
+        <v>0</v>
+      </c>
+      <c r="F637">
+        <v>1</v>
+      </c>
+      <c r="G637">
+        <v>0</v>
+      </c>
+      <c r="H637">
+        <v>0</v>
+      </c>
+      <c r="I637">
+        <v>0</v>
+      </c>
+      <c r="J637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10">
+      <c r="A638" t="s">
+        <v>631</v>
+      </c>
+      <c r="B638">
+        <v>0</v>
+      </c>
+      <c r="C638">
+        <v>0</v>
+      </c>
+      <c r="D638">
+        <v>1</v>
+      </c>
+      <c r="E638">
+        <v>0</v>
+      </c>
+      <c r="F638">
+        <v>0</v>
+      </c>
+      <c r="G638">
+        <v>0</v>
+      </c>
+      <c r="H638">
+        <v>0</v>
+      </c>
+      <c r="I638">
+        <v>0</v>
+      </c>
+      <c r="J638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10">
+      <c r="A639" t="s">
+        <v>632</v>
+      </c>
+      <c r="B639">
+        <v>0</v>
+      </c>
+      <c r="C639">
+        <v>0</v>
+      </c>
+      <c r="D639">
+        <v>0</v>
+      </c>
+      <c r="E639">
+        <v>0</v>
+      </c>
+      <c r="F639">
+        <v>1</v>
+      </c>
+      <c r="G639">
+        <v>0</v>
+      </c>
+      <c r="H639">
+        <v>0</v>
+      </c>
+      <c r="I639">
+        <v>0</v>
+      </c>
+      <c r="J639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10">
+      <c r="A640" t="s">
+        <v>633</v>
+      </c>
+      <c r="B640">
+        <v>0</v>
+      </c>
+      <c r="C640">
+        <v>0</v>
+      </c>
+      <c r="D640">
+        <v>0</v>
+      </c>
+      <c r="E640">
+        <v>0</v>
+      </c>
+      <c r="F640">
+        <v>1</v>
+      </c>
+      <c r="G640">
+        <v>0</v>
+      </c>
+      <c r="H640">
+        <v>0</v>
+      </c>
+      <c r="I640">
+        <v>0</v>
+      </c>
+      <c r="J640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10">
+      <c r="A641" t="s">
+        <v>634</v>
+      </c>
+      <c r="B641">
+        <v>0</v>
+      </c>
+      <c r="C641">
+        <v>0</v>
+      </c>
+      <c r="D641">
+        <v>0</v>
+      </c>
+      <c r="E641">
+        <v>0</v>
+      </c>
+      <c r="F641">
+        <v>1</v>
+      </c>
+      <c r="G641">
+        <v>0</v>
+      </c>
+      <c r="H641">
+        <v>0</v>
+      </c>
+      <c r="I641">
+        <v>0</v>
+      </c>
+      <c r="J641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10">
+      <c r="A642" t="s">
+        <v>635</v>
+      </c>
+      <c r="B642">
+        <v>0</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+      <c r="D642">
+        <v>0</v>
+      </c>
+      <c r="E642">
+        <v>0</v>
+      </c>
+      <c r="F642">
+        <v>1</v>
+      </c>
+      <c r="G642">
+        <v>0</v>
+      </c>
+      <c r="H642">
+        <v>0</v>
+      </c>
+      <c r="I642">
+        <v>0</v>
+      </c>
+      <c r="J642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10">
+      <c r="A643" t="s">
+        <v>636</v>
+      </c>
+      <c r="B643">
+        <v>0</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+      <c r="D643">
+        <v>0</v>
+      </c>
+      <c r="E643">
+        <v>0</v>
+      </c>
+      <c r="F643">
+        <v>1</v>
+      </c>
+      <c r="G643">
+        <v>0</v>
+      </c>
+      <c r="H643">
+        <v>0</v>
+      </c>
+      <c r="I643">
+        <v>0</v>
+      </c>
+      <c r="J643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10">
+      <c r="A644" t="s">
+        <v>637</v>
+      </c>
+      <c r="B644">
+        <v>0</v>
+      </c>
+      <c r="C644">
+        <v>0</v>
+      </c>
+      <c r="D644">
+        <v>0</v>
+      </c>
+      <c r="E644">
+        <v>0</v>
+      </c>
+      <c r="F644">
+        <v>1</v>
+      </c>
+      <c r="G644">
+        <v>0</v>
+      </c>
+      <c r="H644">
+        <v>0</v>
+      </c>
+      <c r="I644">
+        <v>0</v>
+      </c>
+      <c r="J644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10">
+      <c r="A645" t="s">
+        <v>638</v>
+      </c>
+      <c r="B645">
+        <v>0</v>
+      </c>
+      <c r="C645">
+        <v>0</v>
+      </c>
+      <c r="D645">
+        <v>0</v>
+      </c>
+      <c r="E645">
+        <v>0</v>
+      </c>
+      <c r="F645">
+        <v>1</v>
+      </c>
+      <c r="G645">
+        <v>0</v>
+      </c>
+      <c r="H645">
+        <v>0</v>
+      </c>
+      <c r="I645">
+        <v>0</v>
+      </c>
+      <c r="J645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10">
+      <c r="A646" t="s">
+        <v>639</v>
+      </c>
+      <c r="B646">
+        <v>0</v>
+      </c>
+      <c r="C646">
+        <v>0</v>
+      </c>
+      <c r="D646">
+        <v>0</v>
+      </c>
+      <c r="E646">
+        <v>0</v>
+      </c>
+      <c r="F646">
+        <v>1</v>
+      </c>
+      <c r="G646">
+        <v>0</v>
+      </c>
+      <c r="H646">
+        <v>0</v>
+      </c>
+      <c r="I646">
+        <v>0</v>
+      </c>
+      <c r="J646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10">
+      <c r="A647" t="s">
+        <v>640</v>
+      </c>
+      <c r="B647">
+        <v>0</v>
+      </c>
+      <c r="C647">
+        <v>0</v>
+      </c>
+      <c r="D647">
+        <v>0</v>
+      </c>
+      <c r="E647">
+        <v>0</v>
+      </c>
+      <c r="F647">
+        <v>1</v>
+      </c>
+      <c r="G647">
+        <v>0</v>
+      </c>
+      <c r="H647">
+        <v>0</v>
+      </c>
+      <c r="I647">
+        <v>0</v>
+      </c>
+      <c r="J647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10">
+      <c r="A648" t="s">
+        <v>641</v>
+      </c>
+      <c r="B648">
+        <v>0</v>
+      </c>
+      <c r="C648">
+        <v>0</v>
+      </c>
+      <c r="D648">
+        <v>0</v>
+      </c>
+      <c r="E648">
+        <v>0</v>
+      </c>
+      <c r="F648">
+        <v>1</v>
+      </c>
+      <c r="G648">
+        <v>0</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+      <c r="I648">
+        <v>0</v>
+      </c>
+      <c r="J648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10">
+      <c r="A649" t="s">
+        <v>642</v>
+      </c>
+      <c r="B649">
+        <v>0</v>
+      </c>
+      <c r="C649">
+        <v>0</v>
+      </c>
+      <c r="D649">
+        <v>0</v>
+      </c>
+      <c r="E649">
+        <v>0</v>
+      </c>
+      <c r="F649">
+        <v>1</v>
+      </c>
+      <c r="G649">
+        <v>0</v>
+      </c>
+      <c r="H649">
+        <v>0</v>
+      </c>
+      <c r="I649">
+        <v>0</v>
+      </c>
+      <c r="J649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10">
+      <c r="A650" t="s">
+        <v>643</v>
+      </c>
+      <c r="B650">
+        <v>0</v>
+      </c>
+      <c r="C650">
+        <v>0</v>
+      </c>
+      <c r="D650">
+        <v>0</v>
+      </c>
+      <c r="E650">
+        <v>0</v>
+      </c>
+      <c r="F650">
+        <v>1</v>
+      </c>
+      <c r="G650">
+        <v>0</v>
+      </c>
+      <c r="H650">
+        <v>0</v>
+      </c>
+      <c r="I650">
+        <v>0</v>
+      </c>
+      <c r="J650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10">
+      <c r="A651" t="s">
+        <v>644</v>
+      </c>
+      <c r="B651">
+        <v>0</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+      <c r="D651">
+        <v>0</v>
+      </c>
+      <c r="E651">
+        <v>0</v>
+      </c>
+      <c r="F651">
+        <v>1</v>
+      </c>
+      <c r="G651">
+        <v>0</v>
+      </c>
+      <c r="H651">
+        <v>0</v>
+      </c>
+      <c r="I651">
+        <v>0</v>
+      </c>
+      <c r="J651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10">
+      <c r="A652" t="s">
+        <v>645</v>
+      </c>
+      <c r="B652">
+        <v>0</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+      <c r="D652">
+        <v>0</v>
+      </c>
+      <c r="E652">
+        <v>0</v>
+      </c>
+      <c r="F652">
+        <v>1</v>
+      </c>
+      <c r="G652">
+        <v>0</v>
+      </c>
+      <c r="H652">
+        <v>0</v>
+      </c>
+      <c r="I652">
+        <v>0</v>
+      </c>
+      <c r="J652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10">
+      <c r="A653" t="s">
+        <v>646</v>
+      </c>
+      <c r="B653">
+        <v>0</v>
+      </c>
+      <c r="C653">
+        <v>0</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653">
+        <v>0</v>
+      </c>
+      <c r="F653">
+        <v>1</v>
+      </c>
+      <c r="G653">
+        <v>0</v>
+      </c>
+      <c r="H653">
+        <v>0</v>
+      </c>
+      <c r="I653">
+        <v>0</v>
+      </c>
+      <c r="J653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10">
+      <c r="A654" t="s">
+        <v>647</v>
+      </c>
+      <c r="B654">
+        <v>0</v>
+      </c>
+      <c r="C654">
+        <v>0</v>
+      </c>
+      <c r="D654">
+        <v>0</v>
+      </c>
+      <c r="E654">
+        <v>0</v>
+      </c>
+      <c r="F654">
+        <v>1</v>
+      </c>
+      <c r="G654">
+        <v>0</v>
+      </c>
+      <c r="H654">
+        <v>0</v>
+      </c>
+      <c r="I654">
+        <v>0</v>
+      </c>
+      <c r="J654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10">
+      <c r="A655" t="s">
+        <v>648</v>
+      </c>
+      <c r="B655">
+        <v>0</v>
+      </c>
+      <c r="C655">
+        <v>0</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+      <c r="E655">
+        <v>0</v>
+      </c>
+      <c r="F655">
+        <v>0</v>
+      </c>
+      <c r="G655">
+        <v>0</v>
+      </c>
+      <c r="H655">
+        <v>0</v>
+      </c>
+      <c r="I655">
+        <v>0</v>
+      </c>
+      <c r="J655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10">
+      <c r="A656" t="s">
+        <v>649</v>
+      </c>
+      <c r="B656">
+        <v>0</v>
+      </c>
+      <c r="C656">
+        <v>0</v>
+      </c>
+      <c r="D656">
+        <v>0</v>
+      </c>
+      <c r="E656">
+        <v>0</v>
+      </c>
+      <c r="F656">
+        <v>0</v>
+      </c>
+      <c r="G656">
+        <v>0</v>
+      </c>
+      <c r="H656">
+        <v>0</v>
+      </c>
+      <c r="I656">
+        <v>0</v>
+      </c>
+      <c r="J656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10">
+      <c r="A657" t="s">
+        <v>650</v>
+      </c>
+      <c r="B657">
+        <v>0</v>
+      </c>
+      <c r="C657">
+        <v>0</v>
+      </c>
+      <c r="D657">
+        <v>0</v>
+      </c>
+      <c r="E657">
+        <v>0</v>
+      </c>
+      <c r="F657">
+        <v>1</v>
+      </c>
+      <c r="G657">
+        <v>0</v>
+      </c>
+      <c r="H657">
+        <v>0</v>
+      </c>
+      <c r="I657">
+        <v>0</v>
+      </c>
+      <c r="J657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10">
+      <c r="A658" t="s">
+        <v>651</v>
+      </c>
+      <c r="B658">
+        <v>0</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+      <c r="D658">
+        <v>0</v>
+      </c>
+      <c r="E658">
+        <v>0</v>
+      </c>
+      <c r="F658">
+        <v>1</v>
+      </c>
+      <c r="G658">
+        <v>0</v>
+      </c>
+      <c r="H658">
+        <v>0</v>
+      </c>
+      <c r="I658">
+        <v>0</v>
+      </c>
+      <c r="J658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10">
+      <c r="A659" t="s">
+        <v>652</v>
+      </c>
+      <c r="B659">
+        <v>0</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+      <c r="D659">
+        <v>0</v>
+      </c>
+      <c r="E659">
+        <v>0</v>
+      </c>
+      <c r="F659">
+        <v>1</v>
+      </c>
+      <c r="G659">
+        <v>0</v>
+      </c>
+      <c r="H659">
+        <v>0</v>
+      </c>
+      <c r="I659">
+        <v>0</v>
+      </c>
+      <c r="J659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10">
+      <c r="A660" t="s">
+        <v>653</v>
+      </c>
+      <c r="B660">
+        <v>0</v>
+      </c>
+      <c r="C660">
+        <v>0</v>
+      </c>
+      <c r="D660">
+        <v>0</v>
+      </c>
+      <c r="E660">
+        <v>0</v>
+      </c>
+      <c r="F660">
+        <v>1</v>
+      </c>
+      <c r="G660">
+        <v>0</v>
+      </c>
+      <c r="H660">
+        <v>0</v>
+      </c>
+      <c r="I660">
+        <v>0</v>
+      </c>
+      <c r="J660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10">
+      <c r="A661" t="s">
+        <v>654</v>
+      </c>
+      <c r="B661">
+        <v>0</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+      <c r="D661">
+        <v>0</v>
+      </c>
+      <c r="E661">
+        <v>0</v>
+      </c>
+      <c r="F661">
+        <v>1</v>
+      </c>
+      <c r="G661">
+        <v>0</v>
+      </c>
+      <c r="H661">
+        <v>0</v>
+      </c>
+      <c r="I661">
+        <v>0</v>
+      </c>
+      <c r="J661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10">
+      <c r="A662" t="s">
+        <v>655</v>
+      </c>
+      <c r="B662">
+        <v>0</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+      <c r="D662">
+        <v>0</v>
+      </c>
+      <c r="E662">
+        <v>0</v>
+      </c>
+      <c r="F662">
+        <v>1</v>
+      </c>
+      <c r="G662">
+        <v>0</v>
+      </c>
+      <c r="H662">
+        <v>0</v>
+      </c>
+      <c r="I662">
+        <v>0</v>
+      </c>
+      <c r="J662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10">
+      <c r="A663" t="s">
+        <v>656</v>
+      </c>
+      <c r="B663">
+        <v>0</v>
+      </c>
+      <c r="C663">
+        <v>0</v>
+      </c>
+      <c r="D663">
+        <v>0</v>
+      </c>
+      <c r="E663">
+        <v>0</v>
+      </c>
+      <c r="F663">
+        <v>1</v>
+      </c>
+      <c r="G663">
+        <v>0</v>
+      </c>
+      <c r="H663">
+        <v>0</v>
+      </c>
+      <c r="I663">
+        <v>0</v>
+      </c>
+      <c r="J663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10">
+      <c r="A664" t="s">
+        <v>657</v>
+      </c>
+      <c r="B664">
+        <v>0</v>
+      </c>
+      <c r="C664">
+        <v>0</v>
+      </c>
+      <c r="D664">
+        <v>0</v>
+      </c>
+      <c r="E664">
+        <v>0</v>
+      </c>
+      <c r="F664">
+        <v>1</v>
+      </c>
+      <c r="G664">
+        <v>0</v>
+      </c>
+      <c r="H664">
+        <v>0</v>
+      </c>
+      <c r="I664">
+        <v>0</v>
+      </c>
+      <c r="J664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10">
+      <c r="A665" t="s">
+        <v>658</v>
+      </c>
+      <c r="B665">
+        <v>0</v>
+      </c>
+      <c r="C665">
+        <v>0</v>
+      </c>
+      <c r="D665">
+        <v>0</v>
+      </c>
+      <c r="E665">
+        <v>0</v>
+      </c>
+      <c r="F665">
+        <v>1</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+      <c r="H665">
+        <v>0</v>
+      </c>
+      <c r="I665">
+        <v>0</v>
+      </c>
+      <c r="J665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10">
+      <c r="A666" t="s">
+        <v>659</v>
+      </c>
+      <c r="B666">
+        <v>0</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+      <c r="D666">
+        <v>0</v>
+      </c>
+      <c r="E666">
+        <v>0</v>
+      </c>
+      <c r="F666">
+        <v>1</v>
+      </c>
+      <c r="G666">
+        <v>0</v>
+      </c>
+      <c r="H666">
+        <v>0</v>
+      </c>
+      <c r="I666">
+        <v>0</v>
+      </c>
+      <c r="J666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10">
+      <c r="A667" t="s">
+        <v>660</v>
+      </c>
+      <c r="B667">
+        <v>0</v>
+      </c>
+      <c r="C667">
+        <v>0</v>
+      </c>
+      <c r="D667">
+        <v>0</v>
+      </c>
+      <c r="E667">
+        <v>0</v>
+      </c>
+      <c r="F667">
+        <v>1</v>
+      </c>
+      <c r="G667">
+        <v>0</v>
+      </c>
+      <c r="H667">
+        <v>0</v>
+      </c>
+      <c r="I667">
+        <v>0</v>
+      </c>
+      <c r="J667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10">
+      <c r="A668" t="s">
+        <v>661</v>
+      </c>
+      <c r="B668">
+        <v>0</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+      <c r="D668">
+        <v>0</v>
+      </c>
+      <c r="E668">
+        <v>0</v>
+      </c>
+      <c r="F668">
+        <v>1</v>
+      </c>
+      <c r="G668">
+        <v>0</v>
+      </c>
+      <c r="H668">
+        <v>0</v>
+      </c>
+      <c r="I668">
+        <v>0</v>
+      </c>
+      <c r="J668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10">
+      <c r="A669" t="s">
+        <v>662</v>
+      </c>
+      <c r="B669">
+        <v>0</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+      <c r="D669">
+        <v>0</v>
+      </c>
+      <c r="E669">
+        <v>0</v>
+      </c>
+      <c r="F669">
+        <v>1</v>
+      </c>
+      <c r="G669">
+        <v>0</v>
+      </c>
+      <c r="H669">
+        <v>0</v>
+      </c>
+      <c r="I669">
+        <v>0</v>
+      </c>
+      <c r="J669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10">
+      <c r="A670" t="s">
+        <v>663</v>
+      </c>
+      <c r="B670">
+        <v>0</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+      <c r="D670">
+        <v>0</v>
+      </c>
+      <c r="E670">
+        <v>0</v>
+      </c>
+      <c r="F670">
+        <v>1</v>
+      </c>
+      <c r="G670">
+        <v>0</v>
+      </c>
+      <c r="H670">
+        <v>0</v>
+      </c>
+      <c r="I670">
+        <v>0</v>
+      </c>
+      <c r="J670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10">
+      <c r="A671" t="s">
+        <v>664</v>
+      </c>
+      <c r="B671">
+        <v>0</v>
+      </c>
+      <c r="C671">
+        <v>0</v>
+      </c>
+      <c r="D671">
+        <v>0</v>
+      </c>
+      <c r="E671">
+        <v>0</v>
+      </c>
+      <c r="F671">
+        <v>1</v>
+      </c>
+      <c r="G671">
+        <v>0</v>
+      </c>
+      <c r="H671">
+        <v>0</v>
+      </c>
+      <c r="I671">
+        <v>0</v>
+      </c>
+      <c r="J671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10">
+      <c r="A672" t="s">
+        <v>665</v>
+      </c>
+      <c r="B672">
+        <v>0</v>
+      </c>
+      <c r="C672">
+        <v>0</v>
+      </c>
+      <c r="D672">
+        <v>0</v>
+      </c>
+      <c r="E672">
+        <v>0</v>
+      </c>
+      <c r="F672">
+        <v>1</v>
+      </c>
+      <c r="G672">
+        <v>0</v>
+      </c>
+      <c r="H672">
+        <v>0</v>
+      </c>
+      <c r="I672">
+        <v>0</v>
+      </c>
+      <c r="J672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10">
+      <c r="A673" t="s">
+        <v>666</v>
+      </c>
+      <c r="B673">
+        <v>0</v>
+      </c>
+      <c r="C673">
+        <v>0</v>
+      </c>
+      <c r="D673">
+        <v>0</v>
+      </c>
+      <c r="E673">
+        <v>0</v>
+      </c>
+      <c r="F673">
+        <v>1</v>
+      </c>
+      <c r="G673">
+        <v>0</v>
+      </c>
+      <c r="H673">
+        <v>0</v>
+      </c>
+      <c r="I673">
+        <v>0</v>
+      </c>
+      <c r="J673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10">
+      <c r="A674" t="s">
+        <v>667</v>
+      </c>
+      <c r="B674">
+        <v>0</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+      <c r="D674">
+        <v>0</v>
+      </c>
+      <c r="E674">
+        <v>0</v>
+      </c>
+      <c r="F674">
+        <v>1</v>
+      </c>
+      <c r="G674">
+        <v>0</v>
+      </c>
+      <c r="H674">
+        <v>0</v>
+      </c>
+      <c r="I674">
+        <v>0</v>
+      </c>
+      <c r="J674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10">
+      <c r="A675" t="s">
+        <v>668</v>
+      </c>
+      <c r="B675">
+        <v>0</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+      <c r="D675">
+        <v>0</v>
+      </c>
+      <c r="E675">
+        <v>0</v>
+      </c>
+      <c r="F675">
+        <v>1</v>
+      </c>
+      <c r="G675">
+        <v>0</v>
+      </c>
+      <c r="H675">
+        <v>0</v>
+      </c>
+      <c r="I675">
+        <v>0</v>
+      </c>
+      <c r="J675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10">
+      <c r="A676" t="s">
+        <v>669</v>
+      </c>
+      <c r="B676">
+        <v>0</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+      <c r="D676">
+        <v>0</v>
+      </c>
+      <c r="E676">
+        <v>0</v>
+      </c>
+      <c r="F676">
+        <v>1</v>
+      </c>
+      <c r="G676">
+        <v>0</v>
+      </c>
+      <c r="H676">
+        <v>0</v>
+      </c>
+      <c r="I676">
+        <v>0</v>
+      </c>
+      <c r="J676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10">
+      <c r="A677" t="s">
+        <v>670</v>
+      </c>
+      <c r="B677">
+        <v>0</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+      <c r="D677">
+        <v>0</v>
+      </c>
+      <c r="E677">
+        <v>0</v>
+      </c>
+      <c r="F677">
+        <v>1</v>
+      </c>
+      <c r="G677">
+        <v>0</v>
+      </c>
+      <c r="H677">
+        <v>0</v>
+      </c>
+      <c r="I677">
+        <v>0</v>
+      </c>
+      <c r="J677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10">
+      <c r="A678" t="s">
+        <v>671</v>
+      </c>
+      <c r="B678">
+        <v>0</v>
+      </c>
+      <c r="C678">
+        <v>0</v>
+      </c>
+      <c r="D678">
+        <v>0</v>
+      </c>
+      <c r="E678">
+        <v>0</v>
+      </c>
+      <c r="F678">
+        <v>1</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+      <c r="H678">
+        <v>0</v>
+      </c>
+      <c r="I678">
+        <v>0</v>
+      </c>
+      <c r="J678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10">
+      <c r="A679" t="s">
+        <v>672</v>
+      </c>
+      <c r="B679">
+        <v>0</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+      <c r="D679">
+        <v>0</v>
+      </c>
+      <c r="E679">
+        <v>0</v>
+      </c>
+      <c r="F679">
+        <v>1</v>
+      </c>
+      <c r="G679">
+        <v>0</v>
+      </c>
+      <c r="H679">
+        <v>0</v>
+      </c>
+      <c r="I679">
+        <v>0</v>
+      </c>
+      <c r="J679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10">
+      <c r="A680" t="s">
+        <v>673</v>
+      </c>
+      <c r="B680">
+        <v>0</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+      <c r="D680">
+        <v>1</v>
+      </c>
+      <c r="E680">
+        <v>0</v>
+      </c>
+      <c r="F680">
+        <v>0</v>
+      </c>
+      <c r="G680">
+        <v>0</v>
+      </c>
+      <c r="H680">
+        <v>0</v>
+      </c>
+      <c r="I680">
+        <v>0</v>
+      </c>
+      <c r="J680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10">
+      <c r="A681" t="s">
+        <v>674</v>
+      </c>
+      <c r="B681">
+        <v>0</v>
+      </c>
+      <c r="C681">
+        <v>0</v>
+      </c>
+      <c r="D681">
+        <v>0</v>
+      </c>
+      <c r="E681">
+        <v>0</v>
+      </c>
+      <c r="F681">
+        <v>1</v>
+      </c>
+      <c r="G681">
+        <v>0</v>
+      </c>
+      <c r="H681">
+        <v>0</v>
+      </c>
+      <c r="I681">
+        <v>0</v>
+      </c>
+      <c r="J681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10">
+      <c r="A682" t="s">
+        <v>675</v>
+      </c>
+      <c r="B682">
+        <v>0</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+      <c r="D682">
+        <v>0</v>
+      </c>
+      <c r="E682">
+        <v>0</v>
+      </c>
+      <c r="F682">
+        <v>0</v>
+      </c>
+      <c r="G682">
+        <v>0</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+      <c r="I682">
+        <v>0</v>
+      </c>
+      <c r="J682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10">
+      <c r="A683" t="s">
+        <v>676</v>
+      </c>
+      <c r="B683">
+        <v>0</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+      <c r="D683">
+        <v>0</v>
+      </c>
+      <c r="E683">
+        <v>0</v>
+      </c>
+      <c r="F683">
+        <v>1</v>
+      </c>
+      <c r="G683">
+        <v>0</v>
+      </c>
+      <c r="H683">
+        <v>0</v>
+      </c>
+      <c r="I683">
+        <v>0</v>
+      </c>
+      <c r="J683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10">
+      <c r="A684" t="s">
+        <v>677</v>
+      </c>
+      <c r="B684">
+        <v>0</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+      <c r="D684">
+        <v>0</v>
+      </c>
+      <c r="E684">
+        <v>0</v>
+      </c>
+      <c r="F684">
+        <v>1</v>
+      </c>
+      <c r="G684">
+        <v>0</v>
+      </c>
+      <c r="H684">
+        <v>0</v>
+      </c>
+      <c r="I684">
+        <v>0</v>
+      </c>
+      <c r="J684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10">
+      <c r="A685" t="s">
+        <v>678</v>
+      </c>
+      <c r="B685">
+        <v>0</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+      <c r="D685">
+        <v>0</v>
+      </c>
+      <c r="E685">
+        <v>0</v>
+      </c>
+      <c r="F685">
+        <v>1</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+      <c r="H685">
+        <v>0</v>
+      </c>
+      <c r="I685">
+        <v>0</v>
+      </c>
+      <c r="J685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10">
+      <c r="A686" t="s">
+        <v>679</v>
+      </c>
+      <c r="B686">
+        <v>0</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+      <c r="D686">
+        <v>0</v>
+      </c>
+      <c r="E686">
+        <v>0</v>
+      </c>
+      <c r="F686">
+        <v>1</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+      <c r="H686">
+        <v>0</v>
+      </c>
+      <c r="I686">
+        <v>0</v>
+      </c>
+      <c r="J686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10">
+      <c r="A687" t="s">
+        <v>680</v>
+      </c>
+      <c r="B687">
+        <v>0</v>
+      </c>
+      <c r="C687">
+        <v>0</v>
+      </c>
+      <c r="D687">
+        <v>0</v>
+      </c>
+      <c r="E687">
+        <v>0</v>
+      </c>
+      <c r="F687">
+        <v>1</v>
+      </c>
+      <c r="G687">
+        <v>0</v>
+      </c>
+      <c r="H687">
+        <v>0</v>
+      </c>
+      <c r="I687">
+        <v>0</v>
+      </c>
+      <c r="J687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10">
+      <c r="A688" t="s">
+        <v>681</v>
+      </c>
+      <c r="B688">
+        <v>0</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+      <c r="D688">
+        <v>0</v>
+      </c>
+      <c r="E688">
+        <v>0</v>
+      </c>
+      <c r="F688">
+        <v>1</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+      <c r="H688">
+        <v>0</v>
+      </c>
+      <c r="I688">
+        <v>0</v>
+      </c>
+      <c r="J688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10">
+      <c r="A689" t="s">
+        <v>682</v>
+      </c>
+      <c r="B689">
+        <v>0</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+      <c r="D689">
+        <v>0</v>
+      </c>
+      <c r="E689">
+        <v>0</v>
+      </c>
+      <c r="F689">
+        <v>1</v>
+      </c>
+      <c r="G689">
+        <v>0</v>
+      </c>
+      <c r="H689">
+        <v>0</v>
+      </c>
+      <c r="I689">
+        <v>0</v>
+      </c>
+      <c r="J689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10">
+      <c r="A690" t="s">
+        <v>683</v>
+      </c>
+      <c r="B690">
+        <v>0</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+      <c r="D690">
+        <v>0</v>
+      </c>
+      <c r="E690">
+        <v>0</v>
+      </c>
+      <c r="F690">
+        <v>1</v>
+      </c>
+      <c r="G690">
+        <v>0</v>
+      </c>
+      <c r="H690">
+        <v>0</v>
+      </c>
+      <c r="I690">
+        <v>0</v>
+      </c>
+      <c r="J690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10">
+      <c r="A691" t="s">
+        <v>684</v>
+      </c>
+      <c r="B691">
+        <v>0</v>
+      </c>
+      <c r="C691">
+        <v>0</v>
+      </c>
+      <c r="D691">
+        <v>0</v>
+      </c>
+      <c r="E691">
+        <v>0</v>
+      </c>
+      <c r="F691">
+        <v>1</v>
+      </c>
+      <c r="G691">
+        <v>0</v>
+      </c>
+      <c r="H691">
+        <v>0</v>
+      </c>
+      <c r="I691">
+        <v>0</v>
+      </c>
+      <c r="J691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10">
+      <c r="A692" t="s">
+        <v>685</v>
+      </c>
+      <c r="B692">
+        <v>0</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+      <c r="D692">
+        <v>0</v>
+      </c>
+      <c r="E692">
+        <v>0</v>
+      </c>
+      <c r="F692">
+        <v>0</v>
+      </c>
+      <c r="G692">
+        <v>0</v>
+      </c>
+      <c r="H692">
+        <v>0</v>
+      </c>
+      <c r="I692">
+        <v>0</v>
+      </c>
+      <c r="J692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10">
+      <c r="A693" t="s">
+        <v>686</v>
+      </c>
+      <c r="B693">
+        <v>0</v>
+      </c>
+      <c r="C693">
+        <v>0</v>
+      </c>
+      <c r="D693">
+        <v>0</v>
+      </c>
+      <c r="E693">
+        <v>0</v>
+      </c>
+      <c r="F693">
+        <v>1</v>
+      </c>
+      <c r="G693">
+        <v>0</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+      <c r="I693">
+        <v>0</v>
+      </c>
+      <c r="J693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10">
+      <c r="A694" t="s">
+        <v>687</v>
+      </c>
+      <c r="B694">
+        <v>0</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+      <c r="D694">
+        <v>0</v>
+      </c>
+      <c r="E694">
+        <v>0</v>
+      </c>
+      <c r="F694">
+        <v>1</v>
+      </c>
+      <c r="G694">
+        <v>0</v>
+      </c>
+      <c r="H694">
+        <v>0</v>
+      </c>
+      <c r="I694">
+        <v>0</v>
+      </c>
+      <c r="J694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10">
+      <c r="A695" t="s">
+        <v>688</v>
+      </c>
+      <c r="B695">
+        <v>0</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+      <c r="D695">
+        <v>0</v>
+      </c>
+      <c r="E695">
+        <v>0</v>
+      </c>
+      <c r="F695">
+        <v>1</v>
+      </c>
+      <c r="G695">
+        <v>0</v>
+      </c>
+      <c r="H695">
+        <v>0</v>
+      </c>
+      <c r="I695">
+        <v>0</v>
+      </c>
+      <c r="J695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10">
+      <c r="A696" t="s">
+        <v>444</v>
+      </c>
+      <c r="B696">
+        <v>0</v>
+      </c>
+      <c r="C696">
+        <v>0</v>
+      </c>
+      <c r="D696">
+        <v>1</v>
+      </c>
+      <c r="E696">
+        <v>0</v>
+      </c>
+      <c r="F696">
+        <v>0</v>
+      </c>
+      <c r="G696">
+        <v>0</v>
+      </c>
+      <c r="H696">
+        <v>0</v>
+      </c>
+      <c r="I696">
+        <v>0</v>
+      </c>
+      <c r="J696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10">
+      <c r="A697" t="s">
+        <v>159</v>
+      </c>
+      <c r="B697">
+        <v>0</v>
+      </c>
+      <c r="C697">
+        <v>0</v>
+      </c>
+      <c r="D697">
+        <v>0</v>
+      </c>
+      <c r="E697">
+        <v>0</v>
+      </c>
+      <c r="F697">
+        <v>1</v>
+      </c>
+      <c r="G697">
+        <v>0</v>
+      </c>
+      <c r="H697">
+        <v>0</v>
+      </c>
+      <c r="I697">
+        <v>0</v>
+      </c>
+      <c r="J697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10">
+      <c r="A698" t="s">
+        <v>689</v>
+      </c>
+      <c r="B698">
+        <v>0</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+      <c r="D698">
+        <v>0</v>
+      </c>
+      <c r="E698">
+        <v>0</v>
+      </c>
+      <c r="F698">
+        <v>1</v>
+      </c>
+      <c r="G698">
+        <v>0</v>
+      </c>
+      <c r="H698">
+        <v>0</v>
+      </c>
+      <c r="I698">
+        <v>0</v>
+      </c>
+      <c r="J698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10">
+      <c r="A699" t="s">
+        <v>690</v>
+      </c>
+      <c r="B699">
+        <v>0</v>
+      </c>
+      <c r="C699">
+        <v>1</v>
+      </c>
+      <c r="D699">
+        <v>0</v>
+      </c>
+      <c r="E699">
+        <v>0</v>
+      </c>
+      <c r="F699">
+        <v>0</v>
+      </c>
+      <c r="G699">
+        <v>0</v>
+      </c>
+      <c r="H699">
+        <v>0</v>
+      </c>
+      <c r="I699">
+        <v>0</v>
+      </c>
+      <c r="J699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10">
+      <c r="A700" t="s">
+        <v>691</v>
+      </c>
+      <c r="B700">
+        <v>0</v>
+      </c>
+      <c r="C700">
+        <v>0</v>
+      </c>
+      <c r="D700">
+        <v>0</v>
+      </c>
+      <c r="E700">
+        <v>0</v>
+      </c>
+      <c r="F700">
+        <v>1</v>
+      </c>
+      <c r="G700">
+        <v>0</v>
+      </c>
+      <c r="H700">
+        <v>0</v>
+      </c>
+      <c r="I700">
+        <v>0</v>
+      </c>
+      <c r="J700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10">
+      <c r="A701" t="s">
+        <v>692</v>
+      </c>
+      <c r="B701">
+        <v>0</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+      <c r="D701">
+        <v>0</v>
+      </c>
+      <c r="E701">
+        <v>0</v>
+      </c>
+      <c r="F701">
+        <v>1</v>
+      </c>
+      <c r="G701">
+        <v>0</v>
+      </c>
+      <c r="H701">
+        <v>0</v>
+      </c>
+      <c r="I701">
+        <v>0</v>
+      </c>
+      <c r="J701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10">
+      <c r="A702" t="s">
+        <v>693</v>
+      </c>
+      <c r="B702">
+        <v>0</v>
+      </c>
+      <c r="C702">
+        <v>0</v>
+      </c>
+      <c r="D702">
+        <v>0</v>
+      </c>
+      <c r="E702">
+        <v>0</v>
+      </c>
+      <c r="F702">
+        <v>1</v>
+      </c>
+      <c r="G702">
+        <v>0</v>
+      </c>
+      <c r="H702">
+        <v>0</v>
+      </c>
+      <c r="I702">
+        <v>0</v>
+      </c>
+      <c r="J702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10">
+      <c r="A703" t="s">
+        <v>694</v>
+      </c>
+      <c r="B703">
+        <v>0</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+      <c r="D703">
+        <v>0</v>
+      </c>
+      <c r="E703">
+        <v>0</v>
+      </c>
+      <c r="F703">
+        <v>1</v>
+      </c>
+      <c r="G703">
+        <v>0</v>
+      </c>
+      <c r="H703">
+        <v>0</v>
+      </c>
+      <c r="I703">
+        <v>0</v>
+      </c>
+      <c r="J703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10">
+      <c r="A704" t="s">
+        <v>695</v>
+      </c>
+      <c r="B704">
+        <v>0</v>
+      </c>
+      <c r="C704">
+        <v>0</v>
+      </c>
+      <c r="D704">
+        <v>0</v>
+      </c>
+      <c r="E704">
+        <v>0</v>
+      </c>
+      <c r="F704">
+        <v>1</v>
+      </c>
+      <c r="G704">
+        <v>0</v>
+      </c>
+      <c r="H704">
+        <v>0</v>
+      </c>
+      <c r="I704">
+        <v>0</v>
+      </c>
+      <c r="J704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10">
+      <c r="A705" t="s">
+        <v>696</v>
+      </c>
+      <c r="B705">
+        <v>0</v>
+      </c>
+      <c r="C705">
+        <v>0</v>
+      </c>
+      <c r="D705">
+        <v>0</v>
+      </c>
+      <c r="E705">
+        <v>0</v>
+      </c>
+      <c r="F705">
+        <v>1</v>
+      </c>
+      <c r="G705">
+        <v>0</v>
+      </c>
+      <c r="H705">
+        <v>0</v>
+      </c>
+      <c r="I705">
+        <v>0</v>
+      </c>
+      <c r="J705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10">
+      <c r="A706" t="s">
+        <v>697</v>
+      </c>
+      <c r="B706">
+        <v>0</v>
+      </c>
+      <c r="C706">
+        <v>0</v>
+      </c>
+      <c r="D706">
+        <v>0</v>
+      </c>
+      <c r="E706">
+        <v>0</v>
+      </c>
+      <c r="F706">
+        <v>1</v>
+      </c>
+      <c r="G706">
+        <v>0</v>
+      </c>
+      <c r="H706">
+        <v>0</v>
+      </c>
+      <c r="I706">
+        <v>0</v>
+      </c>
+      <c r="J706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10">
+      <c r="A707" t="s">
+        <v>698</v>
+      </c>
+      <c r="B707">
+        <v>0</v>
+      </c>
+      <c r="C707">
+        <v>0</v>
+      </c>
+      <c r="D707">
+        <v>0</v>
+      </c>
+      <c r="E707">
+        <v>0</v>
+      </c>
+      <c r="F707">
+        <v>1</v>
+      </c>
+      <c r="G707">
+        <v>0</v>
+      </c>
+      <c r="H707">
+        <v>0</v>
+      </c>
+      <c r="I707">
+        <v>0</v>
+      </c>
+      <c r="J707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10">
+      <c r="A708" t="s">
+        <v>699</v>
+      </c>
+      <c r="B708">
+        <v>0</v>
+      </c>
+      <c r="C708">
+        <v>0</v>
+      </c>
+      <c r="D708">
+        <v>0</v>
+      </c>
+      <c r="E708">
+        <v>0</v>
+      </c>
+      <c r="F708">
+        <v>1</v>
+      </c>
+      <c r="G708">
+        <v>0</v>
+      </c>
+      <c r="H708">
+        <v>0</v>
+      </c>
+      <c r="I708">
+        <v>0</v>
+      </c>
+      <c r="J708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10">
+      <c r="A709" t="s">
+        <v>700</v>
+      </c>
+      <c r="B709">
+        <v>0</v>
+      </c>
+      <c r="C709">
+        <v>0</v>
+      </c>
+      <c r="D709">
+        <v>1</v>
+      </c>
+      <c r="E709">
+        <v>0</v>
+      </c>
+      <c r="F709">
+        <v>0</v>
+      </c>
+      <c r="G709">
+        <v>0</v>
+      </c>
+      <c r="H709">
+        <v>0</v>
+      </c>
+      <c r="I709">
+        <v>0</v>
+      </c>
+      <c r="J709">
         <v>0</v>
       </c>
     </row>
